--- a/gantt_realidade.xlsx
+++ b/gantt_realidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08E79CE-853C-044E-A690-3519F52B6100}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF148A4-2EB7-A247-B137-36DBCBCFA351}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
@@ -53,7 +53,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -62,15 +62,51 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Level 1: 1, 2, 3, ...
-Level 2: 1.1, 1.2, 1.3, ...
-Level 3: 1.1.1, 1.1.2, 1.1.3, …
- - The WBS uses a formula to control the numbering, but the formulas are different for different levels. Copy and Paste the cells in the WBS column from the examples at the bottom of the worksheet.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Level 1: 1, 2, 3, ...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Level 2: 1.1, 1.2, 1.3, ...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Level 3: 1.1.1, 1.1.2, 1.1.3, …
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - The WBS uses a formula to control the numbering, but the formulas are different for different levels. Copy and Paste the cells in the WBS column from the examples at the bottom of the worksheet.</t>
         </r>
       </text>
     </comment>
@@ -491,7 +527,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="174">
   <si>
     <t>WBS</t>
   </si>
@@ -1612,6 +1648,45 @@
   </si>
   <si>
     <t>1.11</t>
+  </si>
+  <si>
+    <t>Análise de Requisitos</t>
+  </si>
+  <si>
+    <t>Diagrama de Use Cases</t>
+  </si>
+  <si>
+    <t>Modelo de Domínio</t>
+  </si>
+  <si>
+    <t>Diagrama de Atividade</t>
+  </si>
+  <si>
+    <t>Especificação de Use Cases</t>
+  </si>
+  <si>
+    <t>Diagamas de Sequência</t>
+  </si>
+  <si>
+    <t>Diagramas de Classes</t>
+  </si>
+  <si>
+    <t>Modelo Concetual</t>
+  </si>
+  <si>
+    <t>Modelo Lógico</t>
+  </si>
+  <si>
+    <t>Protótipo de Interface</t>
+  </si>
+  <si>
+    <t>Máquinas de Estado</t>
+  </si>
+  <si>
+    <t>Realização do relatório</t>
+  </si>
+  <si>
+    <t>Revisão da Fase Anterior</t>
   </si>
 </sst>
 </file>
@@ -2374,7 +2449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -3035,6 +3110,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEFEFEF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3085,7 +3169,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3643,70 +3727,31 @@
     <xf numFmtId="1" fontId="40" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3754,16 +3799,64 @@
     <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="61" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="61" fillId="22" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4594,11 +4687,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET47"/>
+  <dimension ref="A1:ET55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -4648,21 +4741,21 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="229"/>
-      <c r="AG1" s="229"/>
-      <c r="AH1" s="229"/>
-      <c r="AI1" s="229"/>
-      <c r="AJ1" s="229"/>
-      <c r="AK1" s="229"/>
-      <c r="AL1" s="229"/>
-      <c r="AM1" s="229"/>
-      <c r="AN1" s="229"/>
-      <c r="AO1" s="229"/>
-      <c r="AP1" s="229"/>
-      <c r="AQ1" s="229"/>
-      <c r="AR1" s="229"/>
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="214"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="214"/>
+      <c r="AJ1" s="214"/>
+      <c r="AK1" s="214"/>
+      <c r="AL1" s="214"/>
+      <c r="AM1" s="214"/>
+      <c r="AN1" s="214"/>
+      <c r="AO1" s="214"/>
+      <c r="AP1" s="214"/>
+      <c r="AQ1" s="214"/>
+      <c r="AR1" s="214"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
@@ -4765,191 +4858,191 @@
       <c r="B4" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="236">
+      <c r="C4" s="223">
         <v>43507</v>
       </c>
-      <c r="D4" s="237"/>
-      <c r="E4" s="238"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="H4" s="149" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="150">
         <v>1</v>
       </c>
-      <c r="K4" s="234" t="str">
+      <c r="K4" s="221" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="212"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="212"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="239"/>
-      <c r="R4" s="234" t="str">
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="221" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="212"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
-      <c r="V4" s="212"/>
-      <c r="W4" s="212"/>
-      <c r="X4" s="235"/>
-      <c r="Y4" s="243" t="str">
+      <c r="S4" s="216"/>
+      <c r="T4" s="216"/>
+      <c r="U4" s="216"/>
+      <c r="V4" s="216"/>
+      <c r="W4" s="216"/>
+      <c r="X4" s="222"/>
+      <c r="Y4" s="230" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="212"/>
-      <c r="AA4" s="212"/>
-      <c r="AB4" s="212"/>
-      <c r="AC4" s="212"/>
-      <c r="AD4" s="212"/>
-      <c r="AE4" s="244"/>
-      <c r="AF4" s="230" t="str">
+      <c r="Z4" s="216"/>
+      <c r="AA4" s="216"/>
+      <c r="AB4" s="216"/>
+      <c r="AC4" s="216"/>
+      <c r="AD4" s="216"/>
+      <c r="AE4" s="231"/>
+      <c r="AF4" s="215" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="212"/>
-      <c r="AH4" s="212"/>
-      <c r="AI4" s="212"/>
-      <c r="AJ4" s="212"/>
-      <c r="AK4" s="212"/>
-      <c r="AL4" s="231"/>
-      <c r="AM4" s="223" t="str">
+      <c r="AG4" s="216"/>
+      <c r="AH4" s="216"/>
+      <c r="AI4" s="216"/>
+      <c r="AJ4" s="216"/>
+      <c r="AK4" s="216"/>
+      <c r="AL4" s="217"/>
+      <c r="AM4" s="244" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="212"/>
-      <c r="AO4" s="212"/>
-      <c r="AP4" s="212"/>
-      <c r="AQ4" s="212"/>
-      <c r="AR4" s="212"/>
-      <c r="AS4" s="224"/>
-      <c r="AT4" s="219" t="str">
+      <c r="AN4" s="216"/>
+      <c r="AO4" s="216"/>
+      <c r="AP4" s="216"/>
+      <c r="AQ4" s="216"/>
+      <c r="AR4" s="216"/>
+      <c r="AS4" s="245"/>
+      <c r="AT4" s="240" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="212"/>
-      <c r="AV4" s="212"/>
-      <c r="AW4" s="212"/>
-      <c r="AX4" s="212"/>
-      <c r="AY4" s="212"/>
-      <c r="AZ4" s="220"/>
-      <c r="BA4" s="225" t="str">
+      <c r="AU4" s="216"/>
+      <c r="AV4" s="216"/>
+      <c r="AW4" s="216"/>
+      <c r="AX4" s="216"/>
+      <c r="AY4" s="216"/>
+      <c r="AZ4" s="241"/>
+      <c r="BA4" s="246" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="212"/>
-      <c r="BC4" s="212"/>
-      <c r="BD4" s="212"/>
-      <c r="BE4" s="212"/>
-      <c r="BF4" s="212"/>
-      <c r="BG4" s="226"/>
-      <c r="BH4" s="211" t="str">
+      <c r="BB4" s="216"/>
+      <c r="BC4" s="216"/>
+      <c r="BD4" s="216"/>
+      <c r="BE4" s="216"/>
+      <c r="BF4" s="216"/>
+      <c r="BG4" s="247"/>
+      <c r="BH4" s="234" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="212"/>
-      <c r="BJ4" s="212"/>
-      <c r="BK4" s="212"/>
-      <c r="BL4" s="212"/>
-      <c r="BM4" s="212"/>
-      <c r="BN4" s="213"/>
+      <c r="BI4" s="216"/>
+      <c r="BJ4" s="216"/>
+      <c r="BK4" s="216"/>
+      <c r="BL4" s="216"/>
+      <c r="BM4" s="216"/>
+      <c r="BN4" s="235"/>
     </row>
     <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="147"/>
       <c r="B5" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="236"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="238"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="225"/>
       <c r="F5" s="145"/>
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="145"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="240">
+      <c r="K5" s="227">
         <f>K6</f>
         <v>43507</v>
       </c>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="240">
+      <c r="L5" s="219"/>
+      <c r="M5" s="219"/>
+      <c r="N5" s="219"/>
+      <c r="O5" s="219"/>
+      <c r="P5" s="219"/>
+      <c r="Q5" s="229"/>
+      <c r="R5" s="227">
         <f>R6</f>
         <v>43514</v>
       </c>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
-      <c r="V5" s="215"/>
-      <c r="W5" s="215"/>
-      <c r="X5" s="241"/>
-      <c r="Y5" s="245">
+      <c r="S5" s="219"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="219"/>
+      <c r="V5" s="219"/>
+      <c r="W5" s="219"/>
+      <c r="X5" s="228"/>
+      <c r="Y5" s="232">
         <f>Y6</f>
         <v>43521</v>
       </c>
-      <c r="Z5" s="215"/>
-      <c r="AA5" s="215"/>
-      <c r="AB5" s="215"/>
-      <c r="AC5" s="215"/>
-      <c r="AD5" s="215"/>
-      <c r="AE5" s="246"/>
-      <c r="AF5" s="232">
+      <c r="Z5" s="219"/>
+      <c r="AA5" s="219"/>
+      <c r="AB5" s="219"/>
+      <c r="AC5" s="219"/>
+      <c r="AD5" s="219"/>
+      <c r="AE5" s="233"/>
+      <c r="AF5" s="218">
         <f>AF6</f>
         <v>43528</v>
       </c>
-      <c r="AG5" s="215"/>
-      <c r="AH5" s="215"/>
-      <c r="AI5" s="215"/>
-      <c r="AJ5" s="215"/>
-      <c r="AK5" s="215"/>
-      <c r="AL5" s="233"/>
-      <c r="AM5" s="217">
+      <c r="AG5" s="219"/>
+      <c r="AH5" s="219"/>
+      <c r="AI5" s="219"/>
+      <c r="AJ5" s="219"/>
+      <c r="AK5" s="219"/>
+      <c r="AL5" s="220"/>
+      <c r="AM5" s="238">
         <f>AM6</f>
         <v>43535</v>
       </c>
-      <c r="AN5" s="215"/>
-      <c r="AO5" s="215"/>
-      <c r="AP5" s="215"/>
-      <c r="AQ5" s="215"/>
-      <c r="AR5" s="215"/>
-      <c r="AS5" s="218"/>
-      <c r="AT5" s="221">
+      <c r="AN5" s="219"/>
+      <c r="AO5" s="219"/>
+      <c r="AP5" s="219"/>
+      <c r="AQ5" s="219"/>
+      <c r="AR5" s="219"/>
+      <c r="AS5" s="239"/>
+      <c r="AT5" s="242">
         <f>AT6</f>
         <v>43542</v>
       </c>
-      <c r="AU5" s="215"/>
-      <c r="AV5" s="215"/>
-      <c r="AW5" s="215"/>
-      <c r="AX5" s="215"/>
-      <c r="AY5" s="215"/>
-      <c r="AZ5" s="222"/>
-      <c r="BA5" s="227">
+      <c r="AU5" s="219"/>
+      <c r="AV5" s="219"/>
+      <c r="AW5" s="219"/>
+      <c r="AX5" s="219"/>
+      <c r="AY5" s="219"/>
+      <c r="AZ5" s="243"/>
+      <c r="BA5" s="248">
         <f>BA6</f>
         <v>43549</v>
       </c>
-      <c r="BB5" s="215"/>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="215"/>
-      <c r="BE5" s="215"/>
-      <c r="BF5" s="215"/>
-      <c r="BG5" s="228"/>
-      <c r="BH5" s="214">
+      <c r="BB5" s="219"/>
+      <c r="BC5" s="219"/>
+      <c r="BD5" s="219"/>
+      <c r="BE5" s="219"/>
+      <c r="BF5" s="219"/>
+      <c r="BG5" s="249"/>
+      <c r="BH5" s="236">
         <f>BH6</f>
         <v>43556</v>
       </c>
-      <c r="BI5" s="215"/>
-      <c r="BJ5" s="215"/>
-      <c r="BK5" s="215"/>
-      <c r="BL5" s="215"/>
-      <c r="BM5" s="215"/>
-      <c r="BN5" s="216"/>
+      <c r="BI5" s="219"/>
+      <c r="BJ5" s="219"/>
+      <c r="BK5" s="219"/>
+      <c r="BL5" s="219"/>
+      <c r="BM5" s="219"/>
+      <c r="BN5" s="237"/>
     </row>
     <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="77"/>
@@ -6401,14 +6494,14 @@
       <c r="A18" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="211" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="249" t="s">
+      <c r="C18" s="212" t="s">
         <v>140</v>
       </c>
       <c r="D18" s="183"/>
-      <c r="E18" s="250">
+      <c r="E18" s="213">
         <v>43518</v>
       </c>
       <c r="F18" s="184">
@@ -6564,25 +6657,25 @@
         <v>2.1</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="116">
-        <v>43141</v>
+        <v>43521</v>
       </c>
       <c r="F20" s="112">
-        <f t="shared" ref="F20:F24" si="11">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>43144</v>
+        <f t="shared" ref="F20:F32" si="11">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <v>43532</v>
       </c>
       <c r="G20" s="67">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H20" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="134">
         <f>IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J20" s="201"/>
       <c r="K20" s="47"/>
@@ -6648,28 +6741,27 @@
         <v>2.2</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="116">
-        <v>43145</v>
+        <v>43528</v>
       </c>
       <c r="F21" s="112">
         <f t="shared" si="11"/>
-        <v>43147</v>
+        <v>43531</v>
       </c>
       <c r="G21" s="67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="134">
-        <f>IF(OR(F21=0,E21=0),0,NETWORKDAYS(E21,F21))</f>
-        <v>3</v>
-      </c>
-      <c r="J21" s="192"/>
-      <c r="K21" s="202"/>
+        <v>6</v>
+      </c>
+      <c r="J21" s="253"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
@@ -6732,25 +6824,25 @@
         <v>2.3</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="116">
-        <v>43145</v>
+        <v>43531</v>
       </c>
       <c r="F22" s="112">
         <f t="shared" si="11"/>
-        <v>43147</v>
+        <v>43533</v>
       </c>
       <c r="G22" s="67">
         <v>3</v>
       </c>
       <c r="H22" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="134">
         <f>IF(OR(F22=0,E22=0),0,NETWORKDAYS(E22,F22))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="192"/>
       <c r="K22" s="202"/>
@@ -6816,25 +6908,24 @@
         <v>2.4</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="116">
-        <v>43148</v>
+        <v>43534</v>
       </c>
       <c r="F23" s="112">
         <f t="shared" si="11"/>
-        <v>43153</v>
+        <v>43550</v>
       </c>
       <c r="G23" s="67">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H23" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="134">
-        <f>IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" s="192"/>
       <c r="K23" s="202"/>
@@ -6900,25 +6991,24 @@
         <v>2.5</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="116">
-        <v>43154</v>
+        <v>43546</v>
       </c>
       <c r="F24" s="112">
         <f t="shared" si="11"/>
-        <v>43156</v>
+        <v>43551</v>
       </c>
       <c r="G24" s="67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H24" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="134">
-        <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24" s="192"/>
       <c r="K24" s="202"/>
@@ -6978,106 +7068,117 @@
       <c r="BM24" s="47"/>
       <c r="BN24" s="47"/>
     </row>
-    <row r="25" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A25" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B25" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="52"/>
-      <c r="BC25" s="52"/>
-      <c r="BD25" s="52"/>
-      <c r="BE25" s="52"/>
-      <c r="BF25" s="52"/>
-      <c r="BG25" s="52"/>
-      <c r="BH25" s="52"/>
-      <c r="BI25" s="52"/>
-      <c r="BJ25" s="52"/>
-      <c r="BK25" s="52"/>
-      <c r="BL25" s="52"/>
-      <c r="BM25" s="52"/>
-      <c r="BN25" s="52"/>
+    <row r="25" spans="1:66" s="45" customFormat="1" ht="26">
+      <c r="A25" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.6</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="116">
+        <v>43535</v>
+      </c>
+      <c r="F25" s="112">
+        <f t="shared" si="11"/>
+        <v>43544</v>
+      </c>
+      <c r="G25" s="67">
+        <v>10</v>
+      </c>
+      <c r="H25" s="68">
+        <v>1</v>
+      </c>
+      <c r="I25" s="134">
+        <v>4</v>
+      </c>
+      <c r="J25" s="192"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="47"/>
+      <c r="BB25" s="47"/>
+      <c r="BC25" s="47"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="47"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="47"/>
+      <c r="BI25" s="47"/>
+      <c r="BJ25" s="47"/>
+      <c r="BK25" s="47"/>
+      <c r="BL25" s="47"/>
+      <c r="BM25" s="47"/>
+      <c r="BN25" s="47"/>
     </row>
     <row r="26" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A26" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="46"/>
+        <v>166</v>
+      </c>
+      <c r="D26" s="251"/>
       <c r="E26" s="116">
-        <v>43141</v>
+        <v>43549</v>
       </c>
       <c r="F26" s="112">
-        <f t="shared" ref="F26:F30" si="12">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
-        <v>43144</v>
+        <f t="shared" si="11"/>
+        <v>43552</v>
       </c>
       <c r="G26" s="67">
         <v>4</v>
       </c>
       <c r="H26" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="134">
-        <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
-        <v>2</v>
+        <f t="shared" ref="I26:I32" si="12">IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
+        <v>4</v>
       </c>
       <c r="J26" s="192"/>
-      <c r="K26" s="202"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="47"/>
       <c r="M26" s="47"/>
       <c r="N26" s="47"/>
@@ -7137,30 +7238,29 @@
     <row r="27" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A27" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="46"/>
+        <v>167</v>
+      </c>
+      <c r="D27" s="251"/>
       <c r="E27" s="116">
-        <v>43145</v>
+        <v>43552</v>
       </c>
       <c r="F27" s="112">
-        <f t="shared" si="12"/>
-        <v>43147</v>
+        <f t="shared" si="11"/>
+        <v>43554</v>
       </c>
       <c r="G27" s="67">
         <v>3</v>
       </c>
       <c r="H27" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="134">
-        <f>IF(OR(F27=0,E27=0),0,NETWORKDAYS(E27,F27))</f>
-        <v>3</v>
-      </c>
-      <c r="J27" s="203"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="192"/>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
       <c r="M27" s="47"/>
@@ -7221,30 +7321,29 @@
     <row r="28" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A28" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="46"/>
+        <v>168</v>
+      </c>
+      <c r="D28" s="251"/>
       <c r="E28" s="116">
-        <v>43145</v>
+        <v>43552</v>
       </c>
       <c r="F28" s="112">
-        <f t="shared" si="12"/>
-        <v>43147</v>
+        <f t="shared" si="11"/>
+        <v>43554</v>
       </c>
       <c r="G28" s="67">
         <v>3</v>
       </c>
       <c r="H28" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="134">
-        <f>IF(OR(F28=0,E28=0),0,NETWORKDAYS(E28,F28))</f>
-        <v>3</v>
-      </c>
-      <c r="J28" s="203"/>
+        <v>5</v>
+      </c>
+      <c r="J28" s="192"/>
       <c r="K28" s="47"/>
       <c r="L28" s="47"/>
       <c r="M28" s="47"/>
@@ -7305,30 +7404,30 @@
     <row r="29" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A29" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
+        <v>2.10</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="46"/>
+        <v>169</v>
+      </c>
+      <c r="D29" s="251"/>
       <c r="E29" s="116">
-        <v>43148</v>
+        <v>43552</v>
       </c>
       <c r="F29" s="112">
+        <f t="shared" si="11"/>
+        <v>43554</v>
+      </c>
+      <c r="G29" s="67">
+        <v>3</v>
+      </c>
+      <c r="H29" s="68">
+        <v>1</v>
+      </c>
+      <c r="I29" s="134">
         <f t="shared" si="12"/>
-        <v>43153</v>
-      </c>
-      <c r="G29" s="67">
-        <v>6</v>
-      </c>
-      <c r="H29" s="68">
-        <v>0</v>
-      </c>
-      <c r="I29" s="134">
-        <f>IF(OR(F29=0,E29=0),0,NETWORKDAYS(E29,F29))</f>
-        <v>4</v>
-      </c>
-      <c r="J29" s="203"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="192"/>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
       <c r="M29" s="47"/>
@@ -7389,30 +7488,29 @@
     <row r="30" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A30" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
+        <v>2.11</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="46"/>
+        <v>170</v>
+      </c>
+      <c r="D30" s="251"/>
       <c r="E30" s="116">
-        <v>43154</v>
+        <v>43552</v>
       </c>
       <c r="F30" s="112">
-        <f t="shared" si="12"/>
-        <v>43156</v>
+        <f t="shared" si="11"/>
+        <v>43555</v>
       </c>
       <c r="G30" s="67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="134">
-        <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
-        <v>1</v>
-      </c>
-      <c r="J30" s="204"/>
+        <v>5</v>
+      </c>
+      <c r="J30" s="192"/>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
       <c r="M30" s="47"/>
@@ -7470,105 +7568,116 @@
       <c r="BM30" s="47"/>
       <c r="BN30" s="47"/>
     </row>
-    <row r="31" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A31" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+    <row r="31" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A31" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.12</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="251"/>
+      <c r="E31" s="116">
+        <v>43552</v>
+      </c>
+      <c r="F31" s="112">
+        <f t="shared" si="11"/>
+        <v>43555</v>
+      </c>
+      <c r="G31" s="67">
         <v>4</v>
       </c>
-      <c r="B31" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="205"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
-      <c r="AO31" s="52"/>
-      <c r="AP31" s="52"/>
-      <c r="AQ31" s="52"/>
-      <c r="AR31" s="52"/>
-      <c r="AS31" s="52"/>
-      <c r="AT31" s="52"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="52"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="52"/>
-      <c r="AY31" s="52"/>
-      <c r="AZ31" s="52"/>
-      <c r="BA31" s="52"/>
-      <c r="BB31" s="52"/>
-      <c r="BC31" s="52"/>
-      <c r="BD31" s="52"/>
-      <c r="BE31" s="52"/>
-      <c r="BF31" s="52"/>
-      <c r="BG31" s="52"/>
-      <c r="BH31" s="52"/>
-      <c r="BI31" s="52"/>
-      <c r="BJ31" s="52"/>
-      <c r="BK31" s="52"/>
-      <c r="BL31" s="52"/>
-      <c r="BM31" s="52"/>
-      <c r="BN31" s="52"/>
+      <c r="H31" s="68">
+        <v>1</v>
+      </c>
+      <c r="I31" s="134">
+        <v>5</v>
+      </c>
+      <c r="J31" s="192"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
+      <c r="BA31" s="47"/>
+      <c r="BB31" s="47"/>
+      <c r="BC31" s="47"/>
+      <c r="BD31" s="47"/>
+      <c r="BE31" s="47"/>
+      <c r="BF31" s="47"/>
+      <c r="BG31" s="47"/>
+      <c r="BH31" s="47"/>
+      <c r="BI31" s="47"/>
+      <c r="BJ31" s="47"/>
+      <c r="BK31" s="47"/>
+      <c r="BL31" s="47"/>
+      <c r="BM31" s="47"/>
+      <c r="BN31" s="47"/>
     </row>
     <row r="32" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A32" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <v>2.13</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="46"/>
+        <v>172</v>
+      </c>
+      <c r="D32" s="251"/>
       <c r="E32" s="116">
-        <v>43129</v>
+        <v>43534</v>
       </c>
       <c r="F32" s="112">
-        <f t="shared" ref="F32:F36" si="13">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
-        <v>43129</v>
+        <f t="shared" si="11"/>
+        <v>43555</v>
       </c>
       <c r="G32" s="67">
+        <v>22</v>
+      </c>
+      <c r="H32" s="68">
         <v>1</v>
       </c>
-      <c r="H32" s="68">
-        <v>0</v>
-      </c>
       <c r="I32" s="134">
-        <f>IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
-        <v>1</v>
-      </c>
-      <c r="J32" s="201"/>
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="J32" s="252"/>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
@@ -7626,118 +7735,106 @@
       <c r="BM32" s="47"/>
       <c r="BN32" s="47"/>
     </row>
-    <row r="33" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A33" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="116">
-        <v>43130</v>
-      </c>
-      <c r="F33" s="112">
-        <f t="shared" si="13"/>
-        <v>43130</v>
-      </c>
-      <c r="G33" s="67">
-        <v>1</v>
-      </c>
-      <c r="H33" s="68">
-        <v>0</v>
-      </c>
-      <c r="I33" s="134">
-        <f>IF(OR(F33=0,E33=0),0,NETWORKDAYS(E33,F33))</f>
-        <v>1</v>
-      </c>
-      <c r="J33" s="203"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="47"/>
-      <c r="AH33" s="47"/>
-      <c r="AI33" s="47"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="47"/>
-      <c r="AL33" s="47"/>
-      <c r="AM33" s="47"/>
-      <c r="AN33" s="47"/>
-      <c r="AO33" s="47"/>
-      <c r="AP33" s="47"/>
-      <c r="AQ33" s="47"/>
-      <c r="AR33" s="47"/>
-      <c r="AS33" s="47"/>
-      <c r="AT33" s="47"/>
-      <c r="AU33" s="47"/>
-      <c r="AV33" s="47"/>
-      <c r="AW33" s="47"/>
-      <c r="AX33" s="47"/>
-      <c r="AY33" s="47"/>
-      <c r="AZ33" s="47"/>
-      <c r="BA33" s="47"/>
-      <c r="BB33" s="47"/>
-      <c r="BC33" s="47"/>
-      <c r="BD33" s="47"/>
-      <c r="BE33" s="47"/>
-      <c r="BF33" s="47"/>
-      <c r="BG33" s="47"/>
-      <c r="BH33" s="47"/>
-      <c r="BI33" s="47"/>
-      <c r="BJ33" s="47"/>
-      <c r="BK33" s="47"/>
-      <c r="BL33" s="47"/>
-      <c r="BM33" s="47"/>
-      <c r="BN33" s="47"/>
+    <row r="33" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A33" s="122" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B33" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
+      <c r="BA33" s="52"/>
+      <c r="BB33" s="52"/>
+      <c r="BC33" s="52"/>
+      <c r="BD33" s="52"/>
+      <c r="BE33" s="52"/>
+      <c r="BF33" s="52"/>
+      <c r="BG33" s="52"/>
+      <c r="BH33" s="52"/>
+      <c r="BI33" s="52"/>
+      <c r="BJ33" s="52"/>
+      <c r="BK33" s="52"/>
+      <c r="BL33" s="52"/>
+      <c r="BM33" s="52"/>
+      <c r="BN33" s="52"/>
     </row>
     <row r="34" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A34" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="116">
-        <v>43131</v>
+        <v>43141</v>
       </c>
       <c r="F34" s="112">
-        <f t="shared" si="13"/>
-        <v>43131</v>
+        <f t="shared" ref="F34:F38" si="13">IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
+        <v>43144</v>
       </c>
       <c r="G34" s="67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" s="68">
         <v>0</v>
       </c>
       <c r="I34" s="134">
         <f>IF(OR(F34=0,E34=0),0,NETWORKDAYS(E34,F34))</f>
-        <v>1</v>
-      </c>
-      <c r="J34" s="203"/>
-      <c r="K34" s="47"/>
+        <v>2</v>
+      </c>
+      <c r="J34" s="192"/>
+      <c r="K34" s="202"/>
       <c r="L34" s="47"/>
       <c r="M34" s="47"/>
       <c r="N34" s="47"/>
@@ -7797,28 +7894,28 @@
     <row r="35" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A35" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="116">
-        <v>43132</v>
+        <v>43145</v>
       </c>
       <c r="F35" s="112">
         <f t="shared" si="13"/>
-        <v>43132</v>
+        <v>43147</v>
       </c>
       <c r="G35" s="67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" s="68">
         <v>0</v>
       </c>
       <c r="I35" s="134">
         <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS(E35,F35))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="203"/>
       <c r="K35" s="47"/>
@@ -7881,30 +7978,30 @@
     <row r="36" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A36" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="116">
-        <v>43133</v>
+        <v>43145</v>
       </c>
       <c r="F36" s="112">
         <f t="shared" si="13"/>
-        <v>43133</v>
+        <v>43147</v>
       </c>
       <c r="G36" s="67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" s="68">
         <v>0</v>
       </c>
       <c r="I36" s="134">
         <f>IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="204"/>
+        <v>3</v>
+      </c>
+      <c r="J36" s="203"/>
       <c r="K36" s="47"/>
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
@@ -7962,17 +8059,33 @@
       <c r="BM36" s="47"/>
       <c r="BN36" s="47"/>
     </row>
-    <row r="37" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A37" s="44"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="126"/>
+    <row r="37" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A37" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="116">
+        <v>43148</v>
+      </c>
+      <c r="F37" s="112">
+        <f t="shared" si="13"/>
+        <v>43153</v>
+      </c>
+      <c r="G37" s="67">
+        <v>6</v>
+      </c>
+      <c r="H37" s="68">
+        <v>0</v>
+      </c>
+      <c r="I37" s="134">
+        <f>IF(OR(F37=0,E37=0),0,NETWORKDAYS(E37,F37))</f>
+        <v>4</v>
+      </c>
+      <c r="J37" s="203"/>
       <c r="K37" s="47"/>
       <c r="L37" s="47"/>
       <c r="M37" s="47"/>
@@ -8030,17 +8143,33 @@
       <c r="BM37" s="47"/>
       <c r="BN37" s="47"/>
     </row>
-    <row r="38" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A38" s="44"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="126"/>
+    <row r="38" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A38" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="116">
+        <v>43154</v>
+      </c>
+      <c r="F38" s="112">
+        <f t="shared" si="13"/>
+        <v>43156</v>
+      </c>
+      <c r="G38" s="67">
+        <v>3</v>
+      </c>
+      <c r="H38" s="68">
+        <v>0</v>
+      </c>
+      <c r="I38" s="134">
+        <f>IF(OR(F38=0,E38=0),0,NETWORKDAYS(E38,F38))</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="204"/>
       <c r="K38" s="47"/>
       <c r="L38" s="47"/>
       <c r="M38" s="47"/>
@@ -8098,89 +8227,105 @@
       <c r="BM38" s="47"/>
       <c r="BN38" s="47"/>
     </row>
-    <row r="39" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A39" s="138" t="s">
+    <row r="39" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A39" s="122" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B39" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52"/>
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="52"/>
+      <c r="AN39" s="52"/>
+      <c r="AO39" s="52"/>
+      <c r="AP39" s="52"/>
+      <c r="AQ39" s="52"/>
+      <c r="AR39" s="52"/>
+      <c r="AS39" s="52"/>
+      <c r="AT39" s="52"/>
+      <c r="AU39" s="52"/>
+      <c r="AV39" s="52"/>
+      <c r="AW39" s="52"/>
+      <c r="AX39" s="52"/>
+      <c r="AY39" s="52"/>
+      <c r="AZ39" s="52"/>
+      <c r="BA39" s="52"/>
+      <c r="BB39" s="52"/>
+      <c r="BC39" s="52"/>
+      <c r="BD39" s="52"/>
+      <c r="BE39" s="52"/>
+      <c r="BF39" s="52"/>
+      <c r="BG39" s="52"/>
+      <c r="BH39" s="52"/>
+      <c r="BI39" s="52"/>
+      <c r="BJ39" s="52"/>
+      <c r="BK39" s="52"/>
+      <c r="BL39" s="52"/>
+      <c r="BM39" s="52"/>
+      <c r="BN39" s="52"/>
+    </row>
+    <row r="40" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A40" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="116">
+        <v>43129</v>
+      </c>
+      <c r="F40" s="112">
+        <f t="shared" ref="F40:F44" si="14">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+        <v>43129</v>
+      </c>
+      <c r="G40" s="67">
         <v>1</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="47"/>
-      <c r="AS39" s="47"/>
-      <c r="AT39" s="47"/>
-      <c r="AU39" s="47"/>
-      <c r="AV39" s="47"/>
-      <c r="AW39" s="47"/>
-      <c r="AX39" s="47"/>
-      <c r="AY39" s="47"/>
-      <c r="AZ39" s="47"/>
-      <c r="BA39" s="47"/>
-      <c r="BB39" s="47"/>
-      <c r="BC39" s="47"/>
-      <c r="BD39" s="47"/>
-      <c r="BE39" s="47"/>
-      <c r="BF39" s="47"/>
-      <c r="BG39" s="47"/>
-      <c r="BH39" s="47"/>
-      <c r="BI39" s="47"/>
-      <c r="BJ39" s="47"/>
-      <c r="BK39" s="47"/>
-      <c r="BL39" s="47"/>
-      <c r="BM39" s="47"/>
-      <c r="BN39" s="47"/>
-    </row>
-    <row r="40" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
-      <c r="A40" s="139" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="143"/>
+      <c r="H40" s="68">
+        <v>0</v>
+      </c>
+      <c r="I40" s="134">
+        <f>IF(OR(F40=0,E40=0),0,NETWORKDAYS(E40,F40))</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="201"/>
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
@@ -8238,22 +8383,33 @@
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
     </row>
-    <row r="41" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A41" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+    <row r="41" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A41" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="116">
+        <v>43130</v>
+      </c>
+      <c r="F41" s="112">
+        <f t="shared" si="14"/>
+        <v>43130</v>
+      </c>
+      <c r="G41" s="67">
         <v>1</v>
       </c>
-      <c r="B41" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="125"/>
+      <c r="H41" s="68">
+        <v>0</v>
+      </c>
+      <c r="I41" s="134">
+        <f>IF(OR(F41=0,E41=0),0,NETWORKDAYS(E41,F41))</f>
+        <v>1</v>
+      </c>
+      <c r="J41" s="203"/>
       <c r="K41" s="47"/>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
@@ -8311,30 +8467,33 @@
       <c r="BM41" s="47"/>
       <c r="BN41" s="47"/>
     </row>
-    <row r="42" spans="1:66" s="57" customFormat="1" ht="18">
+    <row r="42" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A42" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="45"/>
+        <v>7</v>
+      </c>
       <c r="D42" s="46"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="112" t="str">
-        <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G42" s="67"/>
+      <c r="E42" s="116">
+        <v>43131</v>
+      </c>
+      <c r="F42" s="112">
+        <f t="shared" si="14"/>
+        <v>43131</v>
+      </c>
+      <c r="G42" s="67">
+        <v>1</v>
+      </c>
       <c r="H42" s="68">
         <v>0</v>
       </c>
       <c r="I42" s="134">
         <f>IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="124"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="203"/>
       <c r="K42" s="47"/>
       <c r="L42" s="47"/>
       <c r="M42" s="47"/>
@@ -8392,30 +8551,33 @@
       <c r="BM42" s="47"/>
       <c r="BN42" s="47"/>
     </row>
-    <row r="43" spans="1:66" s="57" customFormat="1" ht="18">
+    <row r="43" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A43" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="45"/>
+        <v>7</v>
+      </c>
       <c r="D43" s="46"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="112" t="str">
-        <f t="shared" ref="F43:F44" si="14">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G43" s="67"/>
+      <c r="E43" s="116">
+        <v>43132</v>
+      </c>
+      <c r="F43" s="112">
+        <f t="shared" si="14"/>
+        <v>43132</v>
+      </c>
+      <c r="G43" s="67">
+        <v>1</v>
+      </c>
       <c r="H43" s="68">
         <v>0</v>
       </c>
       <c r="I43" s="134">
-        <f t="shared" ref="I43:I44" si="15">IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="124"/>
+        <f>IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
+        <v>1</v>
+      </c>
+      <c r="J43" s="203"/>
       <c r="K43" s="47"/>
       <c r="L43" s="47"/>
       <c r="M43" s="47"/>
@@ -8473,30 +8635,33 @@
       <c r="BM43" s="47"/>
       <c r="BN43" s="47"/>
     </row>
-    <row r="44" spans="1:66" s="57" customFormat="1" ht="18">
+    <row r="44" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A44" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="45"/>
+        <v>7</v>
+      </c>
       <c r="D44" s="46"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="112" t="str">
+      <c r="E44" s="116">
+        <v>43133</v>
+      </c>
+      <c r="F44" s="112">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G44" s="67"/>
+        <v>43133</v>
+      </c>
+      <c r="G44" s="67">
+        <v>1</v>
+      </c>
       <c r="H44" s="68">
         <v>0</v>
       </c>
       <c r="I44" s="134">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="124"/>
+        <f>IF(OR(F44=0,E44=0),0,NETWORKDAYS(E44,F44))</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="204"/>
       <c r="K44" s="47"/>
       <c r="L44" s="47"/>
       <c r="M44" s="47"/>
@@ -8554,79 +8719,679 @@
       <c r="BM44" s="47"/>
       <c r="BN44" s="47"/>
     </row>
-    <row r="45" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="60"/>
-      <c r="V45" s="60"/>
-      <c r="W45" s="60"/>
-      <c r="X45" s="60"/>
-      <c r="Y45" s="60"/>
-      <c r="Z45" s="60"/>
-      <c r="AA45" s="60"/>
-      <c r="AB45" s="60"/>
-      <c r="AC45" s="60"/>
-      <c r="AD45" s="60"/>
-      <c r="AE45" s="60"/>
-      <c r="AF45" s="60"/>
-      <c r="AG45" s="60"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
-      <c r="AJ45" s="60"/>
-      <c r="AK45" s="60"/>
-      <c r="AL45" s="60"/>
-      <c r="AM45" s="60"/>
-      <c r="AN45" s="60"/>
-      <c r="AO45" s="60"/>
-      <c r="AP45" s="60"/>
-      <c r="AQ45" s="60"/>
-      <c r="AR45" s="60"/>
-      <c r="AS45" s="60"/>
-      <c r="AT45" s="60"/>
-      <c r="AU45" s="60"/>
-      <c r="AV45" s="60"/>
-      <c r="AW45" s="60"/>
-      <c r="AX45" s="60"/>
-      <c r="AY45" s="60"/>
-      <c r="AZ45" s="60"/>
-      <c r="BA45" s="60"/>
-      <c r="BB45" s="60"/>
-      <c r="BC45" s="60"/>
-      <c r="BD45" s="60"/>
-      <c r="BE45" s="60"/>
-      <c r="BF45" s="60"/>
-      <c r="BG45" s="60"/>
-      <c r="BH45" s="60"/>
-      <c r="BI45" s="60"/>
-      <c r="BJ45" s="60"/>
-      <c r="BK45" s="60"/>
-      <c r="BL45" s="60"/>
-      <c r="BM45" s="60"/>
-      <c r="BN45" s="60"/>
-    </row>
-    <row r="46" spans="1:66" ht="19.5" customHeight="1"/>
-    <row r="47" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="45" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A45" s="44"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="47"/>
+      <c r="AL45" s="47"/>
+      <c r="AM45" s="47"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="47"/>
+      <c r="AS45" s="47"/>
+      <c r="AT45" s="47"/>
+      <c r="AU45" s="47"/>
+      <c r="AV45" s="47"/>
+      <c r="AW45" s="47"/>
+      <c r="AX45" s="47"/>
+      <c r="AY45" s="47"/>
+      <c r="AZ45" s="47"/>
+      <c r="BA45" s="47"/>
+      <c r="BB45" s="47"/>
+      <c r="BC45" s="47"/>
+      <c r="BD45" s="47"/>
+      <c r="BE45" s="47"/>
+      <c r="BF45" s="47"/>
+      <c r="BG45" s="47"/>
+      <c r="BH45" s="47"/>
+      <c r="BI45" s="47"/>
+      <c r="BJ45" s="47"/>
+      <c r="BK45" s="47"/>
+      <c r="BL45" s="47"/>
+      <c r="BM45" s="47"/>
+      <c r="BN45" s="47"/>
+    </row>
+    <row r="46" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A46" s="44"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="47"/>
+      <c r="AJ46" s="47"/>
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="47"/>
+      <c r="AM46" s="47"/>
+      <c r="AN46" s="47"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="47"/>
+      <c r="AQ46" s="47"/>
+      <c r="AR46" s="47"/>
+      <c r="AS46" s="47"/>
+      <c r="AT46" s="47"/>
+      <c r="AU46" s="47"/>
+      <c r="AV46" s="47"/>
+      <c r="AW46" s="47"/>
+      <c r="AX46" s="47"/>
+      <c r="AY46" s="47"/>
+      <c r="AZ46" s="47"/>
+      <c r="BA46" s="47"/>
+      <c r="BB46" s="47"/>
+      <c r="BC46" s="47"/>
+      <c r="BD46" s="47"/>
+      <c r="BE46" s="47"/>
+      <c r="BF46" s="47"/>
+      <c r="BG46" s="47"/>
+      <c r="BH46" s="47"/>
+      <c r="BI46" s="47"/>
+      <c r="BJ46" s="47"/>
+      <c r="BK46" s="47"/>
+      <c r="BL46" s="47"/>
+      <c r="BM46" s="47"/>
+      <c r="BN46" s="47"/>
+    </row>
+    <row r="47" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A47" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="47"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="47"/>
+      <c r="AM47" s="47"/>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47"/>
+      <c r="AQ47" s="47"/>
+      <c r="AR47" s="47"/>
+      <c r="AS47" s="47"/>
+      <c r="AT47" s="47"/>
+      <c r="AU47" s="47"/>
+      <c r="AV47" s="47"/>
+      <c r="AW47" s="47"/>
+      <c r="AX47" s="47"/>
+      <c r="AY47" s="47"/>
+      <c r="AZ47" s="47"/>
+      <c r="BA47" s="47"/>
+      <c r="BB47" s="47"/>
+      <c r="BC47" s="47"/>
+      <c r="BD47" s="47"/>
+      <c r="BE47" s="47"/>
+      <c r="BF47" s="47"/>
+      <c r="BG47" s="47"/>
+      <c r="BH47" s="47"/>
+      <c r="BI47" s="47"/>
+      <c r="BJ47" s="47"/>
+      <c r="BK47" s="47"/>
+      <c r="BL47" s="47"/>
+      <c r="BM47" s="47"/>
+      <c r="BN47" s="47"/>
+    </row>
+    <row r="48" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
+      <c r="A48" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="143"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="47"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="47"/>
+      <c r="AL48" s="47"/>
+      <c r="AM48" s="47"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="47"/>
+      <c r="AQ48" s="47"/>
+      <c r="AR48" s="47"/>
+      <c r="AS48" s="47"/>
+      <c r="AT48" s="47"/>
+      <c r="AU48" s="47"/>
+      <c r="AV48" s="47"/>
+      <c r="AW48" s="47"/>
+      <c r="AX48" s="47"/>
+      <c r="AY48" s="47"/>
+      <c r="AZ48" s="47"/>
+      <c r="BA48" s="47"/>
+      <c r="BB48" s="47"/>
+      <c r="BC48" s="47"/>
+      <c r="BD48" s="47"/>
+      <c r="BE48" s="47"/>
+      <c r="BF48" s="47"/>
+      <c r="BG48" s="47"/>
+      <c r="BH48" s="47"/>
+      <c r="BI48" s="47"/>
+      <c r="BJ48" s="47"/>
+      <c r="BK48" s="47"/>
+      <c r="BL48" s="47"/>
+      <c r="BM48" s="47"/>
+      <c r="BN48" s="47"/>
+    </row>
+    <row r="49" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A49" s="122" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B49" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="47"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="47"/>
+      <c r="AH49" s="47"/>
+      <c r="AI49" s="47"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="47"/>
+      <c r="AL49" s="47"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="47"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="47"/>
+      <c r="AW49" s="47"/>
+      <c r="AX49" s="47"/>
+      <c r="AY49" s="47"/>
+      <c r="AZ49" s="47"/>
+      <c r="BA49" s="47"/>
+      <c r="BB49" s="47"/>
+      <c r="BC49" s="47"/>
+      <c r="BD49" s="47"/>
+      <c r="BE49" s="47"/>
+      <c r="BF49" s="47"/>
+      <c r="BG49" s="47"/>
+      <c r="BH49" s="47"/>
+      <c r="BI49" s="47"/>
+      <c r="BJ49" s="47"/>
+      <c r="BK49" s="47"/>
+      <c r="BL49" s="47"/>
+      <c r="BM49" s="47"/>
+      <c r="BN49" s="47"/>
+    </row>
+    <row r="50" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A50" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="112" t="str">
+        <f>IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68">
+        <v>0</v>
+      </c>
+      <c r="I50" s="134">
+        <f>IF(OR(F50=0,E50=0),0,NETWORKDAYS(E50,F50))</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="124"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="47"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="47"/>
+      <c r="AL50" s="47"/>
+      <c r="AM50" s="47"/>
+      <c r="AN50" s="47"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="47"/>
+      <c r="AQ50" s="47"/>
+      <c r="AR50" s="47"/>
+      <c r="AS50" s="47"/>
+      <c r="AT50" s="47"/>
+      <c r="AU50" s="47"/>
+      <c r="AV50" s="47"/>
+      <c r="AW50" s="47"/>
+      <c r="AX50" s="47"/>
+      <c r="AY50" s="47"/>
+      <c r="AZ50" s="47"/>
+      <c r="BA50" s="47"/>
+      <c r="BB50" s="47"/>
+      <c r="BC50" s="47"/>
+      <c r="BD50" s="47"/>
+      <c r="BE50" s="47"/>
+      <c r="BF50" s="47"/>
+      <c r="BG50" s="47"/>
+      <c r="BH50" s="47"/>
+      <c r="BI50" s="47"/>
+      <c r="BJ50" s="47"/>
+      <c r="BK50" s="47"/>
+      <c r="BL50" s="47"/>
+      <c r="BM50" s="47"/>
+      <c r="BN50" s="47"/>
+    </row>
+    <row r="51" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A51" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="112" t="str">
+        <f t="shared" ref="F51:F52" si="15">IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68">
+        <v>0</v>
+      </c>
+      <c r="I51" s="134">
+        <f t="shared" ref="I51:I52" si="16">IF(OR(F51=0,E51=0),0,NETWORKDAYS(E51,F51))</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="124"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="47"/>
+      <c r="AI51" s="47"/>
+      <c r="AJ51" s="47"/>
+      <c r="AK51" s="47"/>
+      <c r="AL51" s="47"/>
+      <c r="AM51" s="47"/>
+      <c r="AN51" s="47"/>
+      <c r="AO51" s="47"/>
+      <c r="AP51" s="47"/>
+      <c r="AQ51" s="47"/>
+      <c r="AR51" s="47"/>
+      <c r="AS51" s="47"/>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="47"/>
+      <c r="AV51" s="47"/>
+      <c r="AW51" s="47"/>
+      <c r="AX51" s="47"/>
+      <c r="AY51" s="47"/>
+      <c r="AZ51" s="47"/>
+      <c r="BA51" s="47"/>
+      <c r="BB51" s="47"/>
+      <c r="BC51" s="47"/>
+      <c r="BD51" s="47"/>
+      <c r="BE51" s="47"/>
+      <c r="BF51" s="47"/>
+      <c r="BG51" s="47"/>
+      <c r="BH51" s="47"/>
+      <c r="BI51" s="47"/>
+      <c r="BJ51" s="47"/>
+      <c r="BK51" s="47"/>
+      <c r="BL51" s="47"/>
+      <c r="BM51" s="47"/>
+      <c r="BN51" s="47"/>
+    </row>
+    <row r="52" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A52" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="45"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="112" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G52" s="67"/>
+      <c r="H52" s="68">
+        <v>0</v>
+      </c>
+      <c r="I52" s="134">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="124"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+      <c r="Y52" s="47"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
+      <c r="AD52" s="47"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="47"/>
+      <c r="AG52" s="47"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="47"/>
+      <c r="AJ52" s="47"/>
+      <c r="AK52" s="47"/>
+      <c r="AL52" s="47"/>
+      <c r="AM52" s="47"/>
+      <c r="AN52" s="47"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="47"/>
+      <c r="AQ52" s="47"/>
+      <c r="AR52" s="47"/>
+      <c r="AS52" s="47"/>
+      <c r="AT52" s="47"/>
+      <c r="AU52" s="47"/>
+      <c r="AV52" s="47"/>
+      <c r="AW52" s="47"/>
+      <c r="AX52" s="47"/>
+      <c r="AY52" s="47"/>
+      <c r="AZ52" s="47"/>
+      <c r="BA52" s="47"/>
+      <c r="BB52" s="47"/>
+      <c r="BC52" s="47"/>
+      <c r="BD52" s="47"/>
+      <c r="BE52" s="47"/>
+      <c r="BF52" s="47"/>
+      <c r="BG52" s="47"/>
+      <c r="BH52" s="47"/>
+      <c r="BI52" s="47"/>
+      <c r="BJ52" s="47"/>
+      <c r="BK52" s="47"/>
+      <c r="BL52" s="47"/>
+      <c r="BM52" s="47"/>
+      <c r="BN52" s="47"/>
+    </row>
+    <row r="53" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="60"/>
+      <c r="AA53" s="60"/>
+      <c r="AB53" s="60"/>
+      <c r="AC53" s="60"/>
+      <c r="AD53" s="60"/>
+      <c r="AE53" s="60"/>
+      <c r="AF53" s="60"/>
+      <c r="AG53" s="60"/>
+      <c r="AH53" s="60"/>
+      <c r="AI53" s="60"/>
+      <c r="AJ53" s="60"/>
+      <c r="AK53" s="60"/>
+      <c r="AL53" s="60"/>
+      <c r="AM53" s="60"/>
+      <c r="AN53" s="60"/>
+      <c r="AO53" s="60"/>
+      <c r="AP53" s="60"/>
+      <c r="AQ53" s="60"/>
+      <c r="AR53" s="60"/>
+      <c r="AS53" s="60"/>
+      <c r="AT53" s="60"/>
+      <c r="AU53" s="60"/>
+      <c r="AV53" s="60"/>
+      <c r="AW53" s="60"/>
+      <c r="AX53" s="60"/>
+      <c r="AY53" s="60"/>
+      <c r="AZ53" s="60"/>
+      <c r="BA53" s="60"/>
+      <c r="BB53" s="60"/>
+      <c r="BC53" s="60"/>
+      <c r="BD53" s="60"/>
+      <c r="BE53" s="60"/>
+      <c r="BF53" s="60"/>
+      <c r="BG53" s="60"/>
+      <c r="BH53" s="60"/>
+      <c r="BI53" s="60"/>
+      <c r="BJ53" s="60"/>
+      <c r="BK53" s="60"/>
+      <c r="BL53" s="60"/>
+      <c r="BM53" s="60"/>
+      <c r="BN53" s="60"/>
+    </row>
+    <row r="54" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="55" spans="1:66" ht="19.5" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8638,17 +9403,9 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H40:H44 H8:H38">
+  <conditionalFormatting sqref="H48:H52 H8:H46">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8667,7 +9424,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN44">
+  <conditionalFormatting sqref="K8:BN52">
     <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -8675,20 +9432,20 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN44">
+  <conditionalFormatting sqref="K6:BN52">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Start Date." sqref="I4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A37:B38 B32 B33:B35 B26:B29 B20:B23 B40 B39 F19 F25 F31 E37:I40 I20 I13 I12 I11 I10 E43:E44 E41:I41 H32:I35 H26:I29 H21:I23 H19:I19 H25:I25 H31:I31" unlockedFormula="1"/>
-    <ignoredError sqref="A31 A25 A19" formula="1"/>
+    <ignoredError sqref="A45:B46 B40 B41:B43 B34:B37 B48 B47 F19 F33 F39 E45:I48 I20 I13 I12 I11 I10 E51:E52 E49:I49 H40:I43 H34:I37 H19:I19 H33:I33 H39:I39 I22" unlockedFormula="1"/>
+    <ignoredError sqref="A39 A33 A19" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8736,7 +9493,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40:H44 H8:H38</xm:sqref>
+          <xm:sqref>H48:H52 H8:H46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8809,10 +9566,10 @@
     </row>
     <row r="12" spans="1:4" s="13" customFormat="1"/>
     <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="247" t="s">
+      <c r="A13" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="247"/>
+      <c r="B13" s="250"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1">
       <c r="A14" s="13"/>
@@ -8873,10 +9630,10 @@
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="18">
-      <c r="A23" s="247" t="s">
+      <c r="A23" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="247"/>
+      <c r="B23" s="250"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
@@ -8977,10 +9734,10 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="18">
-      <c r="A37" s="247" t="s">
+      <c r="A37" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="247"/>
+      <c r="B37" s="250"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="B38" s="162" t="s">
@@ -9017,10 +9774,10 @@
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="18">
-      <c r="A48" s="247" t="s">
+      <c r="A48" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="247"/>
+      <c r="B48" s="250"/>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="B49" s="162" t="s">
@@ -9118,10 +9875,10 @@
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" s="13" customFormat="1" ht="18">
-      <c r="A64" s="247" t="s">
+      <c r="A64" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="247"/>
+      <c r="B64" s="250"/>
     </row>
     <row r="65" spans="1:4" s="2" customFormat="1" ht="45">
       <c r="A65" s="13"/>
@@ -9135,10 +9892,10 @@
       <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A67" s="247" t="s">
+      <c r="A67" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="247"/>
+      <c r="B67" s="250"/>
     </row>
     <row r="68" spans="1:4" s="2" customFormat="1" ht="15">
       <c r="A68" s="171" t="s">

--- a/gantt_realidade.xlsx
+++ b/gantt_realidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35192\Desktop\Universidade\MyChef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF148A4-2EB7-A247-B137-36DBCBCFA351}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3781E64-0B73-4000-ACA5-ECD5E1A3368D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="184">
   <si>
     <t>WBS</t>
   </si>
@@ -1688,6 +1688,36 @@
   <si>
     <t>Revisão da Fase Anterior</t>
   </si>
+  <si>
+    <t>Construção</t>
+  </si>
+  <si>
+    <t>Definição da Arquitetura do Sistema</t>
+  </si>
+  <si>
+    <t>Descrição dos módulos</t>
+  </si>
+  <si>
+    <t>Implementação da Plataforma Web</t>
+  </si>
+  <si>
+    <t>Implementação do Reconhcimento de Voz</t>
+  </si>
+  <si>
+    <t>Adapatação da plataforma Web para Mobile</t>
+  </si>
+  <si>
+    <t>Implementação do GPS</t>
+  </si>
+  <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t>Verificação e Correção do Software</t>
+  </si>
+  <si>
+    <t>Geração de Documentação</t>
+  </si>
 </sst>
 </file>
 
@@ -1699,7 +1729,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="90">
+  <fonts count="90" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2449,7 +2479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -3119,6 +3149,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3169,7 +3210,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3736,22 +3777,79 @@
     <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="61" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="61" fillId="22" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3799,64 +3897,31 @@
     <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="57" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="61" fillId="22" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3906,7 +3971,95 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Verificar Célula" xfId="27" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4031,7 +4184,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="9"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4100,13 +4253,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4687,29 +4840,36 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET55"/>
+  <dimension ref="A1:ET59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="33" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="36" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="36" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="6" style="33" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" style="33" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="33" customWidth="1"/>
-    <col min="11" max="66" width="2.5" style="33" customWidth="1"/>
-    <col min="67" max="16384" width="9.1640625" style="34"/>
+    <col min="11" max="66" width="2.44140625" style="33" customWidth="1"/>
+    <col min="67" max="67" width="9.109375" style="34"/>
+    <col min="68" max="68" width="5.33203125" style="34" customWidth="1"/>
+    <col min="69" max="73" width="9.109375" style="34" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="9.109375" style="34" customWidth="1"/>
+    <col min="75" max="75" width="0.6640625" style="34" customWidth="1"/>
+    <col min="76" max="79" width="9.109375" style="34" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="4.77734375" style="34" customWidth="1"/>
+    <col min="81" max="16384" width="9.109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" s="66" customFormat="1" ht="33" customHeight="1">
+    <row r="1" spans="1:150" s="66" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>152</v>
       </c>
@@ -4741,21 +4901,21 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
-      <c r="AD1" s="214"/>
-      <c r="AE1" s="214"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="214"/>
-      <c r="AH1" s="214"/>
-      <c r="AI1" s="214"/>
-      <c r="AJ1" s="214"/>
-      <c r="AK1" s="214"/>
-      <c r="AL1" s="214"/>
-      <c r="AM1" s="214"/>
-      <c r="AN1" s="214"/>
-      <c r="AO1" s="214"/>
-      <c r="AP1" s="214"/>
-      <c r="AQ1" s="214"/>
-      <c r="AR1" s="214"/>
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="235"/>
+      <c r="AG1" s="235"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="235"/>
+      <c r="AJ1" s="235"/>
+      <c r="AK1" s="235"/>
+      <c r="AL1" s="235"/>
+      <c r="AM1" s="235"/>
+      <c r="AN1" s="235"/>
+      <c r="AO1" s="235"/>
+      <c r="AP1" s="235"/>
+      <c r="AQ1" s="235"/>
+      <c r="AR1" s="235"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
@@ -4779,7 +4939,7 @@
       <c r="BM1" s="64"/>
       <c r="BN1" s="64"/>
     </row>
-    <row r="2" spans="1:150" s="88" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:150" s="88" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="148" t="s">
         <v>151</v>
       </c>
@@ -4789,7 +4949,7 @@
       <c r="E2" s="86"/>
       <c r="F2" s="87"/>
     </row>
-    <row r="3" spans="1:150" s="132" customFormat="1" ht="6.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:150" s="132" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="127"/>
       <c r="B3" s="128"/>
       <c r="C3" s="128"/>
@@ -4852,199 +5012,283 @@
       <c r="BL3" s="152"/>
       <c r="BM3" s="152"/>
       <c r="BN3" s="153"/>
-    </row>
-    <row r="4" spans="1:150" s="144" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="BO3" s="151"/>
+      <c r="BP3" s="152"/>
+      <c r="BQ3" s="152"/>
+      <c r="BR3" s="152"/>
+      <c r="BS3" s="152"/>
+      <c r="BT3" s="152"/>
+      <c r="BU3" s="153"/>
+      <c r="BV3" s="151"/>
+      <c r="BW3" s="152"/>
+      <c r="BX3" s="152"/>
+      <c r="BY3" s="152"/>
+      <c r="BZ3" s="152"/>
+      <c r="CA3" s="152"/>
+      <c r="CB3" s="153"/>
+      <c r="CC3" s="151"/>
+      <c r="CD3" s="152"/>
+      <c r="CE3" s="152"/>
+      <c r="CF3" s="152"/>
+      <c r="CG3" s="152"/>
+      <c r="CH3" s="152"/>
+      <c r="CI3" s="153"/>
+      <c r="CJ3" s="151"/>
+      <c r="CK3" s="152"/>
+      <c r="CL3" s="152"/>
+      <c r="CM3" s="152"/>
+      <c r="CN3" s="152"/>
+      <c r="CO3" s="152"/>
+      <c r="CP3" s="153"/>
+    </row>
+    <row r="4" spans="1:150" s="144" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="223">
+      <c r="C4" s="242">
         <v>43507</v>
       </c>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="244"/>
       <c r="H4" s="149" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="150">
-        <v>1</v>
-      </c>
-      <c r="K4" s="221" t="str">
+        <v>9</v>
+      </c>
+      <c r="K4" s="240" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="216"/>
-      <c r="O4" s="216"/>
-      <c r="P4" s="216"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="221" t="str">
+        <v>Week 9</v>
+      </c>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="218"/>
+      <c r="P4" s="218"/>
+      <c r="Q4" s="245"/>
+      <c r="R4" s="240" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="S4" s="216"/>
-      <c r="T4" s="216"/>
-      <c r="U4" s="216"/>
-      <c r="V4" s="216"/>
-      <c r="W4" s="216"/>
-      <c r="X4" s="222"/>
-      <c r="Y4" s="230" t="str">
+        <v>Week 10</v>
+      </c>
+      <c r="S4" s="218"/>
+      <c r="T4" s="218"/>
+      <c r="U4" s="218"/>
+      <c r="V4" s="218"/>
+      <c r="W4" s="218"/>
+      <c r="X4" s="241"/>
+      <c r="Y4" s="249" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="Z4" s="216"/>
-      <c r="AA4" s="216"/>
-      <c r="AB4" s="216"/>
-      <c r="AC4" s="216"/>
-      <c r="AD4" s="216"/>
-      <c r="AE4" s="231"/>
-      <c r="AF4" s="215" t="str">
+        <v>Week 11</v>
+      </c>
+      <c r="Z4" s="218"/>
+      <c r="AA4" s="218"/>
+      <c r="AB4" s="218"/>
+      <c r="AC4" s="218"/>
+      <c r="AD4" s="218"/>
+      <c r="AE4" s="250"/>
+      <c r="AF4" s="236" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AG4" s="216"/>
-      <c r="AH4" s="216"/>
-      <c r="AI4" s="216"/>
-      <c r="AJ4" s="216"/>
-      <c r="AK4" s="216"/>
-      <c r="AL4" s="217"/>
-      <c r="AM4" s="244" t="str">
+        <v>Week 12</v>
+      </c>
+      <c r="AG4" s="218"/>
+      <c r="AH4" s="218"/>
+      <c r="AI4" s="218"/>
+      <c r="AJ4" s="218"/>
+      <c r="AK4" s="218"/>
+      <c r="AL4" s="237"/>
+      <c r="AM4" s="229" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AN4" s="216"/>
-      <c r="AO4" s="216"/>
-      <c r="AP4" s="216"/>
-      <c r="AQ4" s="216"/>
-      <c r="AR4" s="216"/>
-      <c r="AS4" s="245"/>
-      <c r="AT4" s="240" t="str">
+        <v>Week 13</v>
+      </c>
+      <c r="AN4" s="218"/>
+      <c r="AO4" s="218"/>
+      <c r="AP4" s="218"/>
+      <c r="AQ4" s="218"/>
+      <c r="AR4" s="218"/>
+      <c r="AS4" s="230"/>
+      <c r="AT4" s="225" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AU4" s="216"/>
-      <c r="AV4" s="216"/>
-      <c r="AW4" s="216"/>
-      <c r="AX4" s="216"/>
-      <c r="AY4" s="216"/>
-      <c r="AZ4" s="241"/>
-      <c r="BA4" s="246" t="str">
+        <v>Week 14</v>
+      </c>
+      <c r="AU4" s="218"/>
+      <c r="AV4" s="218"/>
+      <c r="AW4" s="218"/>
+      <c r="AX4" s="218"/>
+      <c r="AY4" s="218"/>
+      <c r="AZ4" s="226"/>
+      <c r="BA4" s="231" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BB4" s="216"/>
-      <c r="BC4" s="216"/>
-      <c r="BD4" s="216"/>
-      <c r="BE4" s="216"/>
-      <c r="BF4" s="216"/>
-      <c r="BG4" s="247"/>
-      <c r="BH4" s="234" t="str">
+        <v>Week 15</v>
+      </c>
+      <c r="BB4" s="218"/>
+      <c r="BC4" s="218"/>
+      <c r="BD4" s="218"/>
+      <c r="BE4" s="218"/>
+      <c r="BF4" s="218"/>
+      <c r="BG4" s="232"/>
+      <c r="BH4" s="217" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BI4" s="216"/>
-      <c r="BJ4" s="216"/>
-      <c r="BK4" s="216"/>
-      <c r="BL4" s="216"/>
-      <c r="BM4" s="216"/>
-      <c r="BN4" s="235"/>
-    </row>
-    <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+        <v>Week 16</v>
+      </c>
+      <c r="BI4" s="218"/>
+      <c r="BJ4" s="218"/>
+      <c r="BK4" s="218"/>
+      <c r="BL4" s="218"/>
+      <c r="BM4" s="218"/>
+      <c r="BN4" s="219"/>
+      <c r="BO4" s="217"/>
+      <c r="BP4" s="218"/>
+      <c r="BQ4" s="218"/>
+      <c r="BR4" s="218"/>
+      <c r="BS4" s="218"/>
+      <c r="BT4" s="218"/>
+      <c r="BU4" s="219"/>
+      <c r="BV4" s="217"/>
+      <c r="BW4" s="218"/>
+      <c r="BX4" s="218"/>
+      <c r="BY4" s="218"/>
+      <c r="BZ4" s="218"/>
+      <c r="CA4" s="218"/>
+      <c r="CB4" s="219"/>
+      <c r="CC4" s="217"/>
+      <c r="CD4" s="218"/>
+      <c r="CE4" s="218"/>
+      <c r="CF4" s="218"/>
+      <c r="CG4" s="218"/>
+      <c r="CH4" s="218"/>
+      <c r="CI4" s="219"/>
+      <c r="CJ4" s="217"/>
+      <c r="CK4" s="218"/>
+      <c r="CL4" s="218"/>
+      <c r="CM4" s="218"/>
+      <c r="CN4" s="218"/>
+      <c r="CO4" s="218"/>
+      <c r="CP4" s="219"/>
+    </row>
+    <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="147"/>
       <c r="B5" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="225"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="244"/>
       <c r="F5" s="145"/>
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="145"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="227">
+      <c r="K5" s="246">
         <f>K6</f>
-        <v>43507</v>
-      </c>
-      <c r="L5" s="219"/>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="229"/>
-      <c r="R5" s="227">
+        <v>43563</v>
+      </c>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="248"/>
+      <c r="R5" s="246">
         <f>R6</f>
-        <v>43514</v>
-      </c>
-      <c r="S5" s="219"/>
-      <c r="T5" s="219"/>
-      <c r="U5" s="219"/>
-      <c r="V5" s="219"/>
-      <c r="W5" s="219"/>
-      <c r="X5" s="228"/>
-      <c r="Y5" s="232">
+        <v>43570</v>
+      </c>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="221"/>
+      <c r="V5" s="221"/>
+      <c r="W5" s="221"/>
+      <c r="X5" s="247"/>
+      <c r="Y5" s="251">
         <f>Y6</f>
-        <v>43521</v>
-      </c>
-      <c r="Z5" s="219"/>
-      <c r="AA5" s="219"/>
-      <c r="AB5" s="219"/>
-      <c r="AC5" s="219"/>
-      <c r="AD5" s="219"/>
-      <c r="AE5" s="233"/>
-      <c r="AF5" s="218">
+        <v>43577</v>
+      </c>
+      <c r="Z5" s="221"/>
+      <c r="AA5" s="221"/>
+      <c r="AB5" s="221"/>
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="221"/>
+      <c r="AE5" s="252"/>
+      <c r="AF5" s="238">
         <f>AF6</f>
-        <v>43528</v>
-      </c>
-      <c r="AG5" s="219"/>
-      <c r="AH5" s="219"/>
-      <c r="AI5" s="219"/>
-      <c r="AJ5" s="219"/>
-      <c r="AK5" s="219"/>
-      <c r="AL5" s="220"/>
-      <c r="AM5" s="238">
+        <v>43584</v>
+      </c>
+      <c r="AG5" s="221"/>
+      <c r="AH5" s="221"/>
+      <c r="AI5" s="221"/>
+      <c r="AJ5" s="221"/>
+      <c r="AK5" s="221"/>
+      <c r="AL5" s="239"/>
+      <c r="AM5" s="223">
         <f>AM6</f>
-        <v>43535</v>
-      </c>
-      <c r="AN5" s="219"/>
-      <c r="AO5" s="219"/>
-      <c r="AP5" s="219"/>
-      <c r="AQ5" s="219"/>
-      <c r="AR5" s="219"/>
-      <c r="AS5" s="239"/>
-      <c r="AT5" s="242">
+        <v>43591</v>
+      </c>
+      <c r="AN5" s="221"/>
+      <c r="AO5" s="221"/>
+      <c r="AP5" s="221"/>
+      <c r="AQ5" s="221"/>
+      <c r="AR5" s="221"/>
+      <c r="AS5" s="224"/>
+      <c r="AT5" s="227">
         <f>AT6</f>
-        <v>43542</v>
-      </c>
-      <c r="AU5" s="219"/>
-      <c r="AV5" s="219"/>
-      <c r="AW5" s="219"/>
-      <c r="AX5" s="219"/>
-      <c r="AY5" s="219"/>
-      <c r="AZ5" s="243"/>
-      <c r="BA5" s="248">
+        <v>43598</v>
+      </c>
+      <c r="AU5" s="221"/>
+      <c r="AV5" s="221"/>
+      <c r="AW5" s="221"/>
+      <c r="AX5" s="221"/>
+      <c r="AY5" s="221"/>
+      <c r="AZ5" s="228"/>
+      <c r="BA5" s="233">
         <f>BA6</f>
-        <v>43549</v>
-      </c>
-      <c r="BB5" s="219"/>
-      <c r="BC5" s="219"/>
-      <c r="BD5" s="219"/>
-      <c r="BE5" s="219"/>
-      <c r="BF5" s="219"/>
-      <c r="BG5" s="249"/>
-      <c r="BH5" s="236">
+        <v>43605</v>
+      </c>
+      <c r="BB5" s="221"/>
+      <c r="BC5" s="221"/>
+      <c r="BD5" s="221"/>
+      <c r="BE5" s="221"/>
+      <c r="BF5" s="221"/>
+      <c r="BG5" s="234"/>
+      <c r="BH5" s="220">
         <f>BH6</f>
-        <v>43556</v>
-      </c>
-      <c r="BI5" s="219"/>
-      <c r="BJ5" s="219"/>
-      <c r="BK5" s="219"/>
-      <c r="BL5" s="219"/>
-      <c r="BM5" s="219"/>
-      <c r="BN5" s="237"/>
-    </row>
-    <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
+        <v>43612</v>
+      </c>
+      <c r="BI5" s="221"/>
+      <c r="BJ5" s="221"/>
+      <c r="BK5" s="221"/>
+      <c r="BL5" s="221"/>
+      <c r="BM5" s="221"/>
+      <c r="BN5" s="222"/>
+      <c r="BO5" s="220"/>
+      <c r="BP5" s="221"/>
+      <c r="BQ5" s="221"/>
+      <c r="BR5" s="221"/>
+      <c r="BS5" s="221"/>
+      <c r="BT5" s="221"/>
+      <c r="BU5" s="222"/>
+      <c r="BV5" s="220"/>
+      <c r="BW5" s="221"/>
+      <c r="BX5" s="221"/>
+      <c r="BY5" s="221"/>
+      <c r="BZ5" s="221"/>
+      <c r="CA5" s="221"/>
+      <c r="CB5" s="222"/>
+      <c r="CC5" s="220"/>
+      <c r="CD5" s="221"/>
+      <c r="CE5" s="221"/>
+      <c r="CF5" s="221"/>
+      <c r="CG5" s="221"/>
+      <c r="CH5" s="221"/>
+      <c r="CI5" s="222"/>
+      <c r="CJ5" s="220"/>
+      <c r="CK5" s="221"/>
+      <c r="CL5" s="221"/>
+      <c r="CM5" s="221"/>
+      <c r="CN5" s="221"/>
+      <c r="CO5" s="221"/>
+      <c r="CP5" s="222"/>
+    </row>
+    <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="77"/>
       <c r="B6" s="78"/>
       <c r="C6" s="78"/>
@@ -5057,230 +5301,258 @@
       <c r="J6" s="78"/>
       <c r="K6" s="93">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
-        <v>43507</v>
+        <v>43563</v>
       </c>
       <c r="L6" s="80">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43508</v>
+        <v>43564</v>
       </c>
       <c r="M6" s="80">
         <f t="shared" si="0"/>
-        <v>43509</v>
+        <v>43565</v>
       </c>
       <c r="N6" s="80">
         <f t="shared" si="0"/>
-        <v>43510</v>
+        <v>43566</v>
       </c>
       <c r="O6" s="80">
         <f t="shared" si="0"/>
-        <v>43511</v>
+        <v>43567</v>
       </c>
       <c r="P6" s="80">
         <f t="shared" si="0"/>
-        <v>43512</v>
+        <v>43568</v>
       </c>
       <c r="Q6" s="94">
         <f t="shared" si="0"/>
-        <v>43513</v>
+        <v>43569</v>
       </c>
       <c r="R6" s="93">
         <f t="shared" si="0"/>
-        <v>43514</v>
+        <v>43570</v>
       </c>
       <c r="S6" s="80">
         <f t="shared" si="0"/>
-        <v>43515</v>
+        <v>43571</v>
       </c>
       <c r="T6" s="80">
         <f t="shared" si="0"/>
-        <v>43516</v>
+        <v>43572</v>
       </c>
       <c r="U6" s="80">
         <f t="shared" ref="U6" si="1">T6+1</f>
-        <v>43517</v>
+        <v>43573</v>
       </c>
       <c r="V6" s="80">
         <f t="shared" ref="V6" si="2">U6+1</f>
-        <v>43518</v>
+        <v>43574</v>
       </c>
       <c r="W6" s="80">
         <f t="shared" ref="W6" si="3">V6+1</f>
-        <v>43519</v>
+        <v>43575</v>
       </c>
       <c r="X6" s="95">
         <f t="shared" si="0"/>
-        <v>43520</v>
+        <v>43576</v>
       </c>
       <c r="Y6" s="96">
         <f t="shared" si="0"/>
-        <v>43521</v>
+        <v>43577</v>
       </c>
       <c r="Z6" s="80">
         <f t="shared" si="0"/>
-        <v>43522</v>
+        <v>43578</v>
       </c>
       <c r="AA6" s="80">
         <f t="shared" si="0"/>
-        <v>43523</v>
+        <v>43579</v>
       </c>
       <c r="AB6" s="80">
         <f t="shared" si="0"/>
-        <v>43524</v>
+        <v>43580</v>
       </c>
       <c r="AC6" s="80">
         <f t="shared" si="0"/>
-        <v>43525</v>
+        <v>43581</v>
       </c>
       <c r="AD6" s="80">
         <f t="shared" si="0"/>
-        <v>43526</v>
+        <v>43582</v>
       </c>
       <c r="AE6" s="97">
         <f t="shared" si="0"/>
-        <v>43527</v>
+        <v>43583</v>
       </c>
       <c r="AF6" s="98">
         <f t="shared" si="0"/>
-        <v>43528</v>
+        <v>43584</v>
       </c>
       <c r="AG6" s="80">
         <f t="shared" si="0"/>
-        <v>43529</v>
+        <v>43585</v>
       </c>
       <c r="AH6" s="80">
         <f t="shared" si="0"/>
-        <v>43530</v>
+        <v>43586</v>
       </c>
       <c r="AI6" s="80">
         <f t="shared" si="0"/>
-        <v>43531</v>
+        <v>43587</v>
       </c>
       <c r="AJ6" s="80">
         <f t="shared" si="0"/>
-        <v>43532</v>
+        <v>43588</v>
       </c>
       <c r="AK6" s="80">
         <f t="shared" si="0"/>
-        <v>43533</v>
+        <v>43589</v>
       </c>
       <c r="AL6" s="99">
         <f t="shared" si="0"/>
-        <v>43534</v>
+        <v>43590</v>
       </c>
       <c r="AM6" s="100">
         <f t="shared" si="0"/>
-        <v>43535</v>
+        <v>43591</v>
       </c>
       <c r="AN6" s="80">
         <f t="shared" si="0"/>
-        <v>43536</v>
+        <v>43592</v>
       </c>
       <c r="AO6" s="80">
         <f t="shared" si="0"/>
-        <v>43537</v>
+        <v>43593</v>
       </c>
       <c r="AP6" s="80">
         <f t="shared" si="0"/>
-        <v>43538</v>
+        <v>43594</v>
       </c>
       <c r="AQ6" s="80">
         <f t="shared" si="0"/>
-        <v>43539</v>
+        <v>43595</v>
       </c>
       <c r="AR6" s="80">
         <f t="shared" ref="AR6:BN6" si="4">AQ6+1</f>
-        <v>43540</v>
+        <v>43596</v>
       </c>
       <c r="AS6" s="101">
         <f t="shared" si="4"/>
-        <v>43541</v>
+        <v>43597</v>
       </c>
       <c r="AT6" s="102">
         <f t="shared" si="4"/>
-        <v>43542</v>
+        <v>43598</v>
       </c>
       <c r="AU6" s="80">
         <f t="shared" si="4"/>
-        <v>43543</v>
+        <v>43599</v>
       </c>
       <c r="AV6" s="80">
         <f t="shared" si="4"/>
-        <v>43544</v>
+        <v>43600</v>
       </c>
       <c r="AW6" s="80">
         <f t="shared" si="4"/>
-        <v>43545</v>
+        <v>43601</v>
       </c>
       <c r="AX6" s="80">
         <f t="shared" si="4"/>
-        <v>43546</v>
+        <v>43602</v>
       </c>
       <c r="AY6" s="80">
         <f t="shared" si="4"/>
-        <v>43547</v>
+        <v>43603</v>
       </c>
       <c r="AZ6" s="103">
         <f t="shared" si="4"/>
-        <v>43548</v>
+        <v>43604</v>
       </c>
       <c r="BA6" s="104">
         <f t="shared" si="4"/>
-        <v>43549</v>
+        <v>43605</v>
       </c>
       <c r="BB6" s="80">
         <f t="shared" si="4"/>
-        <v>43550</v>
+        <v>43606</v>
       </c>
       <c r="BC6" s="80">
         <f t="shared" si="4"/>
-        <v>43551</v>
+        <v>43607</v>
       </c>
       <c r="BD6" s="80">
         <f t="shared" si="4"/>
-        <v>43552</v>
+        <v>43608</v>
       </c>
       <c r="BE6" s="80">
         <f t="shared" si="4"/>
-        <v>43553</v>
+        <v>43609</v>
       </c>
       <c r="BF6" s="80">
         <f t="shared" si="4"/>
-        <v>43554</v>
+        <v>43610</v>
       </c>
       <c r="BG6" s="105">
         <f t="shared" si="4"/>
-        <v>43555</v>
+        <v>43611</v>
       </c>
       <c r="BH6" s="106">
         <f t="shared" si="4"/>
-        <v>43556</v>
+        <v>43612</v>
       </c>
       <c r="BI6" s="80">
         <f t="shared" si="4"/>
-        <v>43557</v>
+        <v>43613</v>
       </c>
       <c r="BJ6" s="80">
         <f t="shared" si="4"/>
-        <v>43558</v>
+        <v>43614</v>
       </c>
       <c r="BK6" s="80">
         <f t="shared" si="4"/>
-        <v>43559</v>
+        <v>43615</v>
       </c>
       <c r="BL6" s="80">
         <f t="shared" si="4"/>
-        <v>43560</v>
+        <v>43616</v>
       </c>
       <c r="BM6" s="80">
         <f t="shared" si="4"/>
-        <v>43561</v>
+        <v>43617</v>
       </c>
       <c r="BN6" s="107">
         <f t="shared" si="4"/>
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:150" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1">
+        <v>43618</v>
+      </c>
+      <c r="BO6" s="106"/>
+      <c r="BP6" s="80"/>
+      <c r="BQ6" s="80"/>
+      <c r="BR6" s="80"/>
+      <c r="BS6" s="80"/>
+      <c r="BT6" s="80"/>
+      <c r="BU6" s="107"/>
+      <c r="BV6" s="106"/>
+      <c r="BW6" s="80"/>
+      <c r="BX6" s="80"/>
+      <c r="BY6" s="80"/>
+      <c r="BZ6" s="80"/>
+      <c r="CA6" s="80"/>
+      <c r="CB6" s="107"/>
+      <c r="CC6" s="106"/>
+      <c r="CD6" s="80"/>
+      <c r="CE6" s="80"/>
+      <c r="CF6" s="80"/>
+      <c r="CG6" s="80"/>
+      <c r="CH6" s="80"/>
+      <c r="CI6" s="107"/>
+      <c r="CJ6" s="106"/>
+      <c r="CK6" s="80"/>
+      <c r="CL6" s="80"/>
+      <c r="CM6" s="80"/>
+      <c r="CN6" s="80"/>
+      <c r="CO6" s="80"/>
+      <c r="CP6" s="107"/>
+    </row>
+    <row r="7" spans="1:150" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>0</v>
       </c>
@@ -5535,34 +5807,34 @@
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BO7" s="75"/>
-      <c r="BP7" s="75"/>
-      <c r="BQ7" s="75"/>
-      <c r="BR7" s="75"/>
-      <c r="BS7" s="75"/>
-      <c r="BT7" s="75"/>
-      <c r="BU7" s="75"/>
-      <c r="BV7" s="75"/>
-      <c r="BW7" s="75"/>
-      <c r="BX7" s="75"/>
-      <c r="BY7" s="75"/>
-      <c r="BZ7" s="75"/>
-      <c r="CA7" s="75"/>
-      <c r="CB7" s="75"/>
-      <c r="CC7" s="75"/>
-      <c r="CD7" s="75"/>
-      <c r="CE7" s="75"/>
-      <c r="CF7" s="75"/>
-      <c r="CG7" s="75"/>
-      <c r="CH7" s="75"/>
-      <c r="CI7" s="75"/>
-      <c r="CJ7" s="75"/>
-      <c r="CK7" s="75"/>
-      <c r="CL7" s="75"/>
-      <c r="CM7" s="75"/>
-      <c r="CN7" s="75"/>
-      <c r="CO7" s="75"/>
-      <c r="CP7" s="75"/>
+      <c r="BO7" s="90"/>
+      <c r="BP7" s="74"/>
+      <c r="BQ7" s="74"/>
+      <c r="BR7" s="74"/>
+      <c r="BS7" s="74"/>
+      <c r="BT7" s="74"/>
+      <c r="BU7" s="91"/>
+      <c r="BV7" s="90"/>
+      <c r="BW7" s="74"/>
+      <c r="BX7" s="74"/>
+      <c r="BY7" s="74"/>
+      <c r="BZ7" s="74"/>
+      <c r="CA7" s="74"/>
+      <c r="CB7" s="91"/>
+      <c r="CC7" s="90"/>
+      <c r="CD7" s="74"/>
+      <c r="CE7" s="74"/>
+      <c r="CF7" s="74"/>
+      <c r="CG7" s="74"/>
+      <c r="CH7" s="74"/>
+      <c r="CI7" s="91"/>
+      <c r="CJ7" s="90"/>
+      <c r="CK7" s="74"/>
+      <c r="CL7" s="74"/>
+      <c r="CM7" s="74"/>
+      <c r="CN7" s="74"/>
+      <c r="CO7" s="74"/>
+      <c r="CP7" s="91"/>
       <c r="CQ7" s="75"/>
       <c r="CR7" s="75"/>
       <c r="CS7" s="75"/>
@@ -5620,7 +5892,7 @@
       <c r="ES7" s="75"/>
       <c r="ET7" s="75"/>
     </row>
-    <row r="8" spans="1:150" s="37" customFormat="1" ht="19" thickTop="1">
+    <row r="8" spans="1:150" s="37" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -5692,7 +5964,7 @@
       <c r="BM8" s="42"/>
       <c r="BN8" s="42"/>
     </row>
-    <row r="9" spans="1:150" s="45" customFormat="1">
+    <row r="9" spans="1:150" s="45" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A9" s="121" t="str">
         <f t="shared" ref="A9:A14" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -5781,7 +6053,7 @@
       <c r="BM9" s="47"/>
       <c r="BN9" s="47"/>
     </row>
-    <row r="10" spans="1:150" s="45" customFormat="1">
+    <row r="10" spans="1:150" s="45" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A10" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.2</v>
@@ -5870,7 +6142,7 @@
       <c r="BM10" s="47"/>
       <c r="BN10" s="47"/>
     </row>
-    <row r="11" spans="1:150" s="45" customFormat="1" ht="26">
+    <row r="11" spans="1:150" s="45" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A11" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.3</v>
@@ -5959,7 +6231,7 @@
       <c r="BM11" s="47"/>
       <c r="BN11" s="47"/>
     </row>
-    <row r="12" spans="1:150" s="45" customFormat="1" ht="26">
+    <row r="12" spans="1:150" s="45" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A12" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.4</v>
@@ -6048,7 +6320,7 @@
       <c r="BM12" s="47"/>
       <c r="BN12" s="47"/>
     </row>
-    <row r="13" spans="1:150" s="45" customFormat="1" ht="26">
+    <row r="13" spans="1:150" s="45" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A13" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.5</v>
@@ -6137,7 +6409,7 @@
       <c r="BM13" s="47"/>
       <c r="BN13" s="47"/>
     </row>
-    <row r="14" spans="1:150" s="45" customFormat="1">
+    <row r="14" spans="1:150" s="45" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A14" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.6</v>
@@ -6226,7 +6498,7 @@
       <c r="BM14" s="47"/>
       <c r="BN14" s="47"/>
     </row>
-    <row r="15" spans="1:150" s="45" customFormat="1" ht="12">
+    <row r="15" spans="1:150" s="45" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A15" s="121" t="s">
         <v>145</v>
       </c>
@@ -6314,7 +6586,7 @@
       <c r="BM15" s="47"/>
       <c r="BN15" s="47"/>
     </row>
-    <row r="16" spans="1:150" s="45" customFormat="1" ht="12">
+    <row r="16" spans="1:150" s="45" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A16" s="121" t="s">
         <v>146</v>
       </c>
@@ -6402,7 +6674,7 @@
       <c r="BM16" s="47"/>
       <c r="BN16" s="47"/>
     </row>
-    <row r="17" spans="1:66" s="45" customFormat="1" ht="26">
+    <row r="17" spans="1:66" s="45" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A17" s="121" t="s">
         <v>147</v>
       </c>
@@ -6490,7 +6762,7 @@
       <c r="BM17" s="47"/>
       <c r="BN17" s="47"/>
     </row>
-    <row r="18" spans="1:66" s="45" customFormat="1">
+    <row r="18" spans="1:66" s="45" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A18" s="121" t="s">
         <v>160</v>
       </c>
@@ -6578,7 +6850,7 @@
       <c r="BM18" s="47"/>
       <c r="BN18" s="47"/>
     </row>
-    <row r="19" spans="1:66" s="43" customFormat="1" ht="18">
+    <row r="19" spans="1:66" s="43" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -6651,9 +6923,9 @@
       <c r="BM19" s="52"/>
       <c r="BN19" s="52"/>
     </row>
-    <row r="20" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="20" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A20:A32" si="11">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -6664,7 +6936,7 @@
         <v>43521</v>
       </c>
       <c r="F20" s="112">
-        <f t="shared" ref="F20:F32" si="11">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <f t="shared" ref="F20:F32" si="12">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
         <v>43532</v>
       </c>
       <c r="G20" s="67">
@@ -6735,9 +7007,9 @@
       <c r="BM20" s="47"/>
       <c r="BN20" s="47"/>
     </row>
-    <row r="21" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="21" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.2</v>
       </c>
       <c r="B21" s="48" t="s">
@@ -6748,7 +7020,7 @@
         <v>43528</v>
       </c>
       <c r="F21" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43531</v>
       </c>
       <c r="G21" s="67">
@@ -6760,7 +7032,7 @@
       <c r="I21" s="134">
         <v>6</v>
       </c>
-      <c r="J21" s="253"/>
+      <c r="J21" s="216"/>
       <c r="K21" s="47"/>
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
@@ -6818,9 +7090,9 @@
       <c r="BM21" s="47"/>
       <c r="BN21" s="47"/>
     </row>
-    <row r="22" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="22" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.3</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -6831,7 +7103,7 @@
         <v>43531</v>
       </c>
       <c r="F22" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43533</v>
       </c>
       <c r="G22" s="67">
@@ -6902,9 +7174,9 @@
       <c r="BM22" s="47"/>
       <c r="BN22" s="47"/>
     </row>
-    <row r="23" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="23" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -6915,7 +7187,7 @@
         <v>43534</v>
       </c>
       <c r="F23" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43550</v>
       </c>
       <c r="G23" s="67">
@@ -6985,9 +7257,9 @@
       <c r="BM23" s="47"/>
       <c r="BN23" s="47"/>
     </row>
-    <row r="24" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="24" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -6998,7 +7270,7 @@
         <v>43546</v>
       </c>
       <c r="F24" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43551</v>
       </c>
       <c r="G24" s="67">
@@ -7068,9 +7340,9 @@
       <c r="BM24" s="47"/>
       <c r="BN24" s="47"/>
     </row>
-    <row r="25" spans="1:66" s="45" customFormat="1" ht="26">
+    <row r="25" spans="1:66" s="45" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A25" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.6</v>
       </c>
       <c r="B25" s="48" t="s">
@@ -7081,7 +7353,7 @@
         <v>43535</v>
       </c>
       <c r="F25" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43544</v>
       </c>
       <c r="G25" s="67">
@@ -7151,20 +7423,20 @@
       <c r="BM25" s="47"/>
       <c r="BN25" s="47"/>
     </row>
-    <row r="26" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="26" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="251"/>
+      <c r="D26" s="214"/>
       <c r="E26" s="116">
         <v>43549</v>
       </c>
       <c r="F26" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43552</v>
       </c>
       <c r="G26" s="67">
@@ -7174,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="134">
-        <f t="shared" ref="I26:I32" si="12">IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
+        <f t="shared" ref="I26:I32" si="13">IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
         <v>4</v>
       </c>
       <c r="J26" s="192"/>
@@ -7235,20 +7507,20 @@
       <c r="BM26" s="47"/>
       <c r="BN26" s="47"/>
     </row>
-    <row r="27" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="27" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.8</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="251"/>
+      <c r="D27" s="214"/>
       <c r="E27" s="116">
         <v>43552</v>
       </c>
       <c r="F27" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43554</v>
       </c>
       <c r="G27" s="67">
@@ -7318,20 +7590,20 @@
       <c r="BM27" s="47"/>
       <c r="BN27" s="47"/>
     </row>
-    <row r="28" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="28" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.9</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="251"/>
+      <c r="D28" s="214"/>
       <c r="E28" s="116">
         <v>43552</v>
       </c>
       <c r="F28" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43554</v>
       </c>
       <c r="G28" s="67">
@@ -7401,20 +7673,20 @@
       <c r="BM28" s="47"/>
       <c r="BN28" s="47"/>
     </row>
-    <row r="29" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="29" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.10</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="251"/>
+      <c r="D29" s="214"/>
       <c r="E29" s="116">
         <v>43552</v>
       </c>
       <c r="F29" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43554</v>
       </c>
       <c r="G29" s="67">
@@ -7424,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="J29" s="192"/>
@@ -7485,20 +7757,20 @@
       <c r="BM29" s="47"/>
       <c r="BN29" s="47"/>
     </row>
-    <row r="30" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="30" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.11</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="251"/>
+      <c r="D30" s="214"/>
       <c r="E30" s="116">
         <v>43552</v>
       </c>
       <c r="F30" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43555</v>
       </c>
       <c r="G30" s="67">
@@ -7568,20 +7840,20 @@
       <c r="BM30" s="47"/>
       <c r="BN30" s="47"/>
     </row>
-    <row r="31" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="31" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.12</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="251"/>
+      <c r="D31" s="214"/>
       <c r="E31" s="116">
         <v>43552</v>
       </c>
       <c r="F31" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43555</v>
       </c>
       <c r="G31" s="67">
@@ -7651,20 +7923,20 @@
       <c r="BM31" s="47"/>
       <c r="BN31" s="47"/>
     </row>
-    <row r="32" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="32" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>2.13</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="251"/>
+      <c r="D32" s="214"/>
       <c r="E32" s="116">
         <v>43534</v>
       </c>
       <c r="F32" s="112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43555</v>
       </c>
       <c r="G32" s="67">
@@ -7674,10 +7946,10 @@
         <v>1</v>
       </c>
       <c r="I32" s="134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="J32" s="252"/>
+      <c r="J32" s="215"/>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
@@ -7735,13 +8007,13 @@
       <c r="BM32" s="47"/>
       <c r="BN32" s="47"/>
     </row>
-    <row r="33" spans="1:66" s="43" customFormat="1" ht="18">
+    <row r="33" spans="1:66" s="43" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
       <c r="B33" s="109" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="113"/>
@@ -7807,31 +8079,32 @@
       <c r="BM33" s="52"/>
       <c r="BN33" s="52"/>
     </row>
-    <row r="34" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="34" spans="1:66" s="45" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A34" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="116">
-        <v>43141</v>
-      </c>
-      <c r="F34" s="112">
-        <f t="shared" ref="F34:F38" si="13">IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
-        <v>43144</v>
+      <c r="B34" s="254" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="255"/>
+      <c r="D34" s="256"/>
+      <c r="E34" s="257">
+        <v>43561</v>
+      </c>
+      <c r="F34" s="258">
+        <f>IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
+        <v>43563</v>
       </c>
       <c r="G34" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="134">
         <f>IF(OR(F34=0,E34=0),0,NETWORKDAYS(E34,F34))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="192"/>
       <c r="K34" s="202"/>
@@ -7891,31 +8164,32 @@
       <c r="BM34" s="47"/>
       <c r="BN34" s="47"/>
     </row>
-    <row r="35" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="35" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B35" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="116">
-        <v>43145</v>
-      </c>
-      <c r="F35" s="112">
-        <f t="shared" si="13"/>
-        <v>43147</v>
+      <c r="B35" s="254" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="255"/>
+      <c r="D35" s="256"/>
+      <c r="E35" s="257">
+        <v>43563</v>
+      </c>
+      <c r="F35" s="258">
+        <f t="shared" ref="F34:F42" si="14">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <v>43566</v>
       </c>
       <c r="G35" s="67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="134">
         <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS(E35,F35))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" s="203"/>
       <c r="K35" s="47"/>
@@ -7975,31 +8249,32 @@
       <c r="BM35" s="47"/>
       <c r="BN35" s="47"/>
     </row>
-    <row r="36" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="36" spans="1:66" s="45" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A36" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
-      <c r="B36" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="116">
-        <v>43145</v>
-      </c>
-      <c r="F36" s="112">
-        <f t="shared" si="13"/>
-        <v>43147</v>
+      <c r="B36" s="254" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="255"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="257">
+        <v>43566</v>
+      </c>
+      <c r="F36" s="258">
+        <f>IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <v>43615</v>
       </c>
       <c r="G36" s="67">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H36" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="134">
         <f>IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J36" s="203"/>
       <c r="K36" s="47"/>
@@ -8059,31 +8334,32 @@
       <c r="BM36" s="47"/>
       <c r="BN36" s="47"/>
     </row>
-    <row r="37" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="37" spans="1:66" s="45" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A37" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
       </c>
-      <c r="B37" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="116">
-        <v>43148</v>
-      </c>
-      <c r="F37" s="112">
-        <f t="shared" si="13"/>
-        <v>43153</v>
+      <c r="B37" s="254" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="255"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="257">
+        <v>43611</v>
+      </c>
+      <c r="F37" s="258">
+        <f t="shared" si="14"/>
+        <v>43612</v>
       </c>
       <c r="G37" s="67">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H37" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="134">
         <f>IF(OR(F37=0,E37=0),0,NETWORKDAYS(E37,F37))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J37" s="203"/>
       <c r="K37" s="47"/>
@@ -8143,24 +8419,25 @@
       <c r="BM37" s="47"/>
       <c r="BN37" s="47"/>
     </row>
-    <row r="38" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="38" spans="1:66" s="45" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A38" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
       </c>
-      <c r="B38" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="116">
-        <v>43154</v>
-      </c>
-      <c r="F38" s="112">
-        <f t="shared" si="13"/>
-        <v>43156</v>
+      <c r="B38" s="254" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="255"/>
+      <c r="D38" s="256"/>
+      <c r="E38" s="257">
+        <v>43593</v>
+      </c>
+      <c r="F38" s="258">
+        <f t="shared" si="14"/>
+        <v>43593</v>
       </c>
       <c r="G38" s="67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" s="68">
         <v>0</v>
@@ -8227,105 +8504,119 @@
       <c r="BM38" s="47"/>
       <c r="BN38" s="47"/>
     </row>
-    <row r="39" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A39" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B39" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="205"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52"/>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="52"/>
-      <c r="AO39" s="52"/>
-      <c r="AP39" s="52"/>
-      <c r="AQ39" s="52"/>
-      <c r="AR39" s="52"/>
-      <c r="AS39" s="52"/>
-      <c r="AT39" s="52"/>
-      <c r="AU39" s="52"/>
-      <c r="AV39" s="52"/>
-      <c r="AW39" s="52"/>
-      <c r="AX39" s="52"/>
-      <c r="AY39" s="52"/>
-      <c r="AZ39" s="52"/>
-      <c r="BA39" s="52"/>
-      <c r="BB39" s="52"/>
-      <c r="BC39" s="52"/>
-      <c r="BD39" s="52"/>
-      <c r="BE39" s="52"/>
-      <c r="BF39" s="52"/>
-      <c r="BG39" s="52"/>
-      <c r="BH39" s="52"/>
-      <c r="BI39" s="52"/>
-      <c r="BJ39" s="52"/>
-      <c r="BK39" s="52"/>
-      <c r="BL39" s="52"/>
-      <c r="BM39" s="52"/>
-      <c r="BN39" s="52"/>
-    </row>
-    <row r="40" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="39" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.6</v>
+      </c>
+      <c r="B39" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="255"/>
+      <c r="D39" s="256"/>
+      <c r="E39" s="257">
+        <v>43611</v>
+      </c>
+      <c r="F39" s="258">
+        <f t="shared" si="14"/>
+        <v>43611</v>
+      </c>
+      <c r="G39" s="185">
+        <v>1</v>
+      </c>
+      <c r="H39" s="68">
+        <v>1</v>
+      </c>
+      <c r="I39" s="134">
+        <f>IF(OR(F39=0,E39=0),0,NETWORKDAYS(E39,F39))</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="259"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
+      <c r="AT39" s="47"/>
+      <c r="AU39" s="47"/>
+      <c r="AV39" s="47"/>
+      <c r="AW39" s="47"/>
+      <c r="AX39" s="47"/>
+      <c r="AY39" s="47"/>
+      <c r="AZ39" s="47"/>
+      <c r="BA39" s="47"/>
+      <c r="BB39" s="47"/>
+      <c r="BC39" s="47"/>
+      <c r="BD39" s="47"/>
+      <c r="BE39" s="47"/>
+      <c r="BF39" s="47"/>
+      <c r="BG39" s="47"/>
+      <c r="BH39" s="47"/>
+      <c r="BI39" s="47"/>
+      <c r="BJ39" s="47"/>
+      <c r="BK39" s="47"/>
+      <c r="BL39" s="47"/>
+      <c r="BM39" s="47"/>
+      <c r="BN39" s="47"/>
+    </row>
+    <row r="40" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="116">
-        <v>43129</v>
-      </c>
-      <c r="F40" s="112">
-        <f t="shared" ref="F40:F44" si="14">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
-        <v>43129</v>
-      </c>
-      <c r="G40" s="67">
+        <v>3.7</v>
+      </c>
+      <c r="B40" s="254" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="255"/>
+      <c r="D40" s="256"/>
+      <c r="E40" s="257">
+        <v>43566</v>
+      </c>
+      <c r="F40" s="258">
+        <f t="shared" si="14"/>
+        <v>43618</v>
+      </c>
+      <c r="G40" s="185">
+        <v>53</v>
+      </c>
+      <c r="H40" s="68">
         <v>1</v>
-      </c>
-      <c r="H40" s="68">
-        <v>0</v>
       </c>
       <c r="I40" s="134">
         <f>IF(OR(F40=0,E40=0),0,NETWORKDAYS(E40,F40))</f>
-        <v>1</v>
-      </c>
-      <c r="J40" s="201"/>
+        <v>37</v>
+      </c>
+      <c r="J40" s="259"/>
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
@@ -8383,33 +8674,34 @@
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
     </row>
-    <row r="41" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="41" spans="1:66" s="45" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A41" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="116">
-        <v>43130</v>
-      </c>
-      <c r="F41" s="112">
+        <v>3.8</v>
+      </c>
+      <c r="B41" s="254" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="255"/>
+      <c r="D41" s="256"/>
+      <c r="E41" s="257">
+        <v>43610</v>
+      </c>
+      <c r="F41" s="258">
         <f t="shared" si="14"/>
-        <v>43130</v>
-      </c>
-      <c r="G41" s="67">
+        <v>43617</v>
+      </c>
+      <c r="G41" s="185">
+        <v>8</v>
+      </c>
+      <c r="H41" s="68">
         <v>1</v>
-      </c>
-      <c r="H41" s="68">
-        <v>0</v>
       </c>
       <c r="I41" s="134">
         <f>IF(OR(F41=0,E41=0),0,NETWORKDAYS(E41,F41))</f>
-        <v>1</v>
-      </c>
-      <c r="J41" s="203"/>
+        <v>5</v>
+      </c>
+      <c r="J41" s="259"/>
       <c r="K41" s="47"/>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
@@ -8467,33 +8759,34 @@
       <c r="BM41" s="47"/>
       <c r="BN41" s="47"/>
     </row>
-    <row r="42" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="42" spans="1:66" s="45" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A42" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="116">
-        <v>43131</v>
-      </c>
-      <c r="F42" s="112">
-        <f t="shared" si="14"/>
-        <v>43131</v>
-      </c>
-      <c r="G42" s="67">
+        <v>3.9</v>
+      </c>
+      <c r="B42" s="254" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="255"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="257">
+        <v>43615</v>
+      </c>
+      <c r="F42" s="261">
+        <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <v>43618</v>
+      </c>
+      <c r="G42" s="185">
+        <v>4</v>
+      </c>
+      <c r="H42" s="68">
         <v>1</v>
-      </c>
-      <c r="H42" s="68">
-        <v>0</v>
       </c>
       <c r="I42" s="134">
         <f>IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
-        <v>1</v>
-      </c>
-      <c r="J42" s="203"/>
+        <v>2</v>
+      </c>
+      <c r="J42" s="259"/>
       <c r="K42" s="47"/>
       <c r="L42" s="47"/>
       <c r="M42" s="47"/>
@@ -8551,105 +8844,93 @@
       <c r="BM42" s="47"/>
       <c r="BN42" s="47"/>
     </row>
-    <row r="43" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A43" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="116">
-        <v>43132</v>
-      </c>
-      <c r="F43" s="112">
-        <f t="shared" si="14"/>
-        <v>43132</v>
-      </c>
-      <c r="G43" s="67">
-        <v>1</v>
-      </c>
-      <c r="H43" s="68">
-        <v>0</v>
-      </c>
-      <c r="I43" s="134">
-        <f>IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
-        <v>1</v>
-      </c>
-      <c r="J43" s="203"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="47"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="47"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="47"/>
-      <c r="AC43" s="47"/>
-      <c r="AD43" s="47"/>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="47"/>
-      <c r="AG43" s="47"/>
-      <c r="AH43" s="47"/>
-      <c r="AI43" s="47"/>
-      <c r="AJ43" s="47"/>
-      <c r="AK43" s="47"/>
-      <c r="AL43" s="47"/>
-      <c r="AM43" s="47"/>
-      <c r="AN43" s="47"/>
-      <c r="AO43" s="47"/>
-      <c r="AP43" s="47"/>
-      <c r="AQ43" s="47"/>
-      <c r="AR43" s="47"/>
-      <c r="AS43" s="47"/>
-      <c r="AT43" s="47"/>
-      <c r="AU43" s="47"/>
-      <c r="AV43" s="47"/>
-      <c r="AW43" s="47"/>
-      <c r="AX43" s="47"/>
-      <c r="AY43" s="47"/>
-      <c r="AZ43" s="47"/>
-      <c r="BA43" s="47"/>
-      <c r="BB43" s="47"/>
-      <c r="BC43" s="47"/>
-      <c r="BD43" s="47"/>
-      <c r="BE43" s="47"/>
-      <c r="BF43" s="47"/>
-      <c r="BG43" s="47"/>
-      <c r="BH43" s="47"/>
-      <c r="BI43" s="47"/>
-      <c r="BJ43" s="47"/>
-      <c r="BK43" s="47"/>
-      <c r="BL43" s="47"/>
-      <c r="BM43" s="47"/>
-      <c r="BN43" s="47"/>
-    </row>
-    <row r="44" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="43" spans="1:66" s="43" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A43" s="122" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B43" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="205"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="52"/>
+      <c r="AL43" s="52"/>
+      <c r="AM43" s="52"/>
+      <c r="AN43" s="52"/>
+      <c r="AO43" s="52"/>
+      <c r="AP43" s="52"/>
+      <c r="AQ43" s="52"/>
+      <c r="AR43" s="52"/>
+      <c r="AS43" s="52"/>
+      <c r="AT43" s="52"/>
+      <c r="AU43" s="52"/>
+      <c r="AV43" s="52"/>
+      <c r="AW43" s="52"/>
+      <c r="AX43" s="52"/>
+      <c r="AY43" s="52"/>
+      <c r="AZ43" s="52"/>
+      <c r="BA43" s="52"/>
+      <c r="BB43" s="52"/>
+      <c r="BC43" s="52"/>
+      <c r="BD43" s="52"/>
+      <c r="BE43" s="52"/>
+      <c r="BF43" s="52"/>
+      <c r="BG43" s="52"/>
+      <c r="BH43" s="52"/>
+      <c r="BI43" s="52"/>
+      <c r="BJ43" s="52"/>
+      <c r="BK43" s="52"/>
+      <c r="BL43" s="52"/>
+      <c r="BM43" s="52"/>
+      <c r="BN43" s="52"/>
+    </row>
+    <row r="44" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="46"/>
       <c r="E44" s="116">
-        <v>43133</v>
+        <v>43129</v>
       </c>
       <c r="F44" s="112">
-        <f t="shared" si="14"/>
-        <v>43133</v>
+        <f t="shared" ref="F44:F48" si="15">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
+        <v>43129</v>
       </c>
       <c r="G44" s="67">
         <v>1</v>
@@ -8661,7 +8942,7 @@
         <f>IF(OR(F44=0,E44=0),0,NETWORKDAYS(E44,F44))</f>
         <v>1</v>
       </c>
-      <c r="J44" s="204"/>
+      <c r="J44" s="201"/>
       <c r="K44" s="47"/>
       <c r="L44" s="47"/>
       <c r="M44" s="47"/>
@@ -8719,17 +9000,33 @@
       <c r="BM44" s="47"/>
       <c r="BN44" s="47"/>
     </row>
-    <row r="45" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A45" s="44"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="126"/>
+    <row r="45" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="116">
+        <v>43130</v>
+      </c>
+      <c r="F45" s="112">
+        <f t="shared" si="15"/>
+        <v>43130</v>
+      </c>
+      <c r="G45" s="67">
+        <v>1</v>
+      </c>
+      <c r="H45" s="68">
+        <v>0</v>
+      </c>
+      <c r="I45" s="134">
+        <f>IF(OR(F45=0,E45=0),0,NETWORKDAYS(E45,F45))</f>
+        <v>1</v>
+      </c>
+      <c r="J45" s="203"/>
       <c r="K45" s="47"/>
       <c r="L45" s="47"/>
       <c r="M45" s="47"/>
@@ -8787,17 +9084,33 @@
       <c r="BM45" s="47"/>
       <c r="BN45" s="47"/>
     </row>
-    <row r="46" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A46" s="44"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="126"/>
+    <row r="46" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="116">
+        <v>43131</v>
+      </c>
+      <c r="F46" s="112">
+        <f t="shared" si="15"/>
+        <v>43131</v>
+      </c>
+      <c r="G46" s="67">
+        <v>1</v>
+      </c>
+      <c r="H46" s="68">
+        <v>0</v>
+      </c>
+      <c r="I46" s="134">
+        <f>IF(OR(F46=0,E46=0),0,NETWORKDAYS(E46,F46))</f>
+        <v>1</v>
+      </c>
+      <c r="J46" s="203"/>
       <c r="K46" s="47"/>
       <c r="L46" s="47"/>
       <c r="M46" s="47"/>
@@ -8855,19 +9168,33 @@
       <c r="BM46" s="47"/>
       <c r="BN46" s="47"/>
     </row>
-    <row r="47" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A47" s="138" t="s">
+    <row r="47" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A47" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="116">
+        <v>43132</v>
+      </c>
+      <c r="F47" s="112">
+        <f t="shared" si="15"/>
+        <v>43132</v>
+      </c>
+      <c r="G47" s="67">
         <v>1</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
+      <c r="H47" s="68">
+        <v>0</v>
+      </c>
+      <c r="I47" s="134">
+        <f>IF(OR(F47=0,E47=0),0,NETWORKDAYS(E47,F47))</f>
+        <v>1</v>
+      </c>
+      <c r="J47" s="203"/>
       <c r="K47" s="47"/>
       <c r="L47" s="47"/>
       <c r="M47" s="47"/>
@@ -8925,19 +9252,33 @@
       <c r="BM47" s="47"/>
       <c r="BN47" s="47"/>
     </row>
-    <row r="48" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
-      <c r="A48" s="139" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="140"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="143"/>
+    <row r="48" spans="1:66" s="45" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A48" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="116">
+        <v>43133</v>
+      </c>
+      <c r="F48" s="112">
+        <f t="shared" si="15"/>
+        <v>43133</v>
+      </c>
+      <c r="G48" s="67">
+        <v>1</v>
+      </c>
+      <c r="H48" s="68">
+        <v>0</v>
+      </c>
+      <c r="I48" s="134">
+        <f>IF(OR(F48=0,E48=0),0,NETWORKDAYS(E48,F48))</f>
+        <v>1</v>
+      </c>
+      <c r="J48" s="204"/>
       <c r="K48" s="47"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
@@ -8995,22 +9336,17 @@
       <c r="BM48" s="47"/>
       <c r="BN48" s="47"/>
     </row>
-    <row r="49" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A49" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B49" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="125"/>
+    <row r="49" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="126"/>
       <c r="K49" s="47"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
@@ -9068,30 +9404,17 @@
       <c r="BM49" s="47"/>
       <c r="BN49" s="47"/>
     </row>
-    <row r="50" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A50" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="112" t="str">
-        <f>IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G50" s="67"/>
-      <c r="H50" s="68">
-        <v>0</v>
-      </c>
-      <c r="I50" s="134">
-        <f>IF(OR(F50=0,E50=0),0,NETWORKDAYS(E50,F50))</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="124"/>
+    <row r="50" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="126"/>
       <c r="K50" s="47"/>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
@@ -9149,30 +9472,19 @@
       <c r="BM50" s="47"/>
       <c r="BN50" s="47"/>
     </row>
-    <row r="51" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A51" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="112" t="str">
-        <f t="shared" ref="F51:F52" si="15">IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G51" s="67"/>
-      <c r="H51" s="68">
-        <v>0</v>
-      </c>
-      <c r="I51" s="134">
-        <f t="shared" ref="I51:I52" si="16">IF(OR(F51=0,E51=0),0,NETWORKDAYS(E51,F51))</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="124"/>
+    <row r="51" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
       <c r="K51" s="47"/>
       <c r="L51" s="47"/>
       <c r="M51" s="47"/>
@@ -9230,30 +9542,19 @@
       <c r="BM51" s="47"/>
       <c r="BN51" s="47"/>
     </row>
-    <row r="52" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A52" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="112" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G52" s="67"/>
-      <c r="H52" s="68">
-        <v>0</v>
-      </c>
-      <c r="I52" s="134">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="124"/>
+    <row r="52" spans="1:66" s="57" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="140"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="141"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="143"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
       <c r="M52" s="47"/>
@@ -9311,87 +9612,403 @@
       <c r="BM52" s="47"/>
       <c r="BN52" s="47"/>
     </row>
-    <row r="53" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="60"/>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="60"/>
-      <c r="Z53" s="60"/>
-      <c r="AA53" s="60"/>
-      <c r="AB53" s="60"/>
-      <c r="AC53" s="60"/>
-      <c r="AD53" s="60"/>
-      <c r="AE53" s="60"/>
-      <c r="AF53" s="60"/>
-      <c r="AG53" s="60"/>
-      <c r="AH53" s="60"/>
-      <c r="AI53" s="60"/>
-      <c r="AJ53" s="60"/>
-      <c r="AK53" s="60"/>
-      <c r="AL53" s="60"/>
-      <c r="AM53" s="60"/>
-      <c r="AN53" s="60"/>
-      <c r="AO53" s="60"/>
-      <c r="AP53" s="60"/>
-      <c r="AQ53" s="60"/>
-      <c r="AR53" s="60"/>
-      <c r="AS53" s="60"/>
-      <c r="AT53" s="60"/>
-      <c r="AU53" s="60"/>
-      <c r="AV53" s="60"/>
-      <c r="AW53" s="60"/>
-      <c r="AX53" s="60"/>
-      <c r="AY53" s="60"/>
-      <c r="AZ53" s="60"/>
-      <c r="BA53" s="60"/>
-      <c r="BB53" s="60"/>
-      <c r="BC53" s="60"/>
-      <c r="BD53" s="60"/>
-      <c r="BE53" s="60"/>
-      <c r="BF53" s="60"/>
-      <c r="BG53" s="60"/>
-      <c r="BH53" s="60"/>
-      <c r="BI53" s="60"/>
-      <c r="BJ53" s="60"/>
-      <c r="BK53" s="60"/>
-      <c r="BL53" s="60"/>
-      <c r="BM53" s="60"/>
-      <c r="BN53" s="60"/>
-    </row>
-    <row r="54" spans="1:66" ht="19.5" customHeight="1"/>
-    <row r="55" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="53" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="122" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="47"/>
+      <c r="AE53" s="47"/>
+      <c r="AF53" s="47"/>
+      <c r="AG53" s="47"/>
+      <c r="AH53" s="47"/>
+      <c r="AI53" s="47"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="47"/>
+      <c r="AL53" s="47"/>
+      <c r="AM53" s="47"/>
+      <c r="AN53" s="47"/>
+      <c r="AO53" s="47"/>
+      <c r="AP53" s="47"/>
+      <c r="AQ53" s="47"/>
+      <c r="AR53" s="47"/>
+      <c r="AS53" s="47"/>
+      <c r="AT53" s="47"/>
+      <c r="AU53" s="47"/>
+      <c r="AV53" s="47"/>
+      <c r="AW53" s="47"/>
+      <c r="AX53" s="47"/>
+      <c r="AY53" s="47"/>
+      <c r="AZ53" s="47"/>
+      <c r="BA53" s="47"/>
+      <c r="BB53" s="47"/>
+      <c r="BC53" s="47"/>
+      <c r="BD53" s="47"/>
+      <c r="BE53" s="47"/>
+      <c r="BF53" s="47"/>
+      <c r="BG53" s="47"/>
+      <c r="BH53" s="47"/>
+      <c r="BI53" s="47"/>
+      <c r="BJ53" s="47"/>
+      <c r="BK53" s="47"/>
+      <c r="BL53" s="47"/>
+      <c r="BM53" s="47"/>
+      <c r="BN53" s="47"/>
+    </row>
+    <row r="54" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A54" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="45"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="112" t="str">
+        <f>IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G54" s="67"/>
+      <c r="H54" s="68">
+        <v>0</v>
+      </c>
+      <c r="I54" s="134">
+        <f>IF(OR(F54=0,E54=0),0,NETWORKDAYS(E54,F54))</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="124"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="47"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="47"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="47"/>
+      <c r="AJ54" s="47"/>
+      <c r="AK54" s="47"/>
+      <c r="AL54" s="47"/>
+      <c r="AM54" s="47"/>
+      <c r="AN54" s="47"/>
+      <c r="AO54" s="47"/>
+      <c r="AP54" s="47"/>
+      <c r="AQ54" s="47"/>
+      <c r="AR54" s="47"/>
+      <c r="AS54" s="47"/>
+      <c r="AT54" s="47"/>
+      <c r="AU54" s="47"/>
+      <c r="AV54" s="47"/>
+      <c r="AW54" s="47"/>
+      <c r="AX54" s="47"/>
+      <c r="AY54" s="47"/>
+      <c r="AZ54" s="47"/>
+      <c r="BA54" s="47"/>
+      <c r="BB54" s="47"/>
+      <c r="BC54" s="47"/>
+      <c r="BD54" s="47"/>
+      <c r="BE54" s="47"/>
+      <c r="BF54" s="47"/>
+      <c r="BG54" s="47"/>
+      <c r="BH54" s="47"/>
+      <c r="BI54" s="47"/>
+      <c r="BJ54" s="47"/>
+      <c r="BK54" s="47"/>
+      <c r="BL54" s="47"/>
+      <c r="BM54" s="47"/>
+      <c r="BN54" s="47"/>
+    </row>
+    <row r="55" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A55" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="45"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="112" t="str">
+        <f t="shared" ref="F55:F56" si="16">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G55" s="67"/>
+      <c r="H55" s="68">
+        <v>0</v>
+      </c>
+      <c r="I55" s="134">
+        <f t="shared" ref="I55:I56" si="17">IF(OR(F55=0,E55=0),0,NETWORKDAYS(E55,F55))</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="124"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
+      <c r="AD55" s="47"/>
+      <c r="AE55" s="47"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="47"/>
+      <c r="AH55" s="47"/>
+      <c r="AI55" s="47"/>
+      <c r="AJ55" s="47"/>
+      <c r="AK55" s="47"/>
+      <c r="AL55" s="47"/>
+      <c r="AM55" s="47"/>
+      <c r="AN55" s="47"/>
+      <c r="AO55" s="47"/>
+      <c r="AP55" s="47"/>
+      <c r="AQ55" s="47"/>
+      <c r="AR55" s="47"/>
+      <c r="AS55" s="47"/>
+      <c r="AT55" s="47"/>
+      <c r="AU55" s="47"/>
+      <c r="AV55" s="47"/>
+      <c r="AW55" s="47"/>
+      <c r="AX55" s="47"/>
+      <c r="AY55" s="47"/>
+      <c r="AZ55" s="47"/>
+      <c r="BA55" s="47"/>
+      <c r="BB55" s="47"/>
+      <c r="BC55" s="47"/>
+      <c r="BD55" s="47"/>
+      <c r="BE55" s="47"/>
+      <c r="BF55" s="47"/>
+      <c r="BG55" s="47"/>
+      <c r="BH55" s="47"/>
+      <c r="BI55" s="47"/>
+      <c r="BJ55" s="47"/>
+      <c r="BK55" s="47"/>
+      <c r="BL55" s="47"/>
+      <c r="BM55" s="47"/>
+      <c r="BN55" s="47"/>
+    </row>
+    <row r="56" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A56" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="45"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="112" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G56" s="67"/>
+      <c r="H56" s="68">
+        <v>0</v>
+      </c>
+      <c r="I56" s="134">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="124"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="47"/>
+      <c r="AE56" s="47"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="47"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="47"/>
+      <c r="AJ56" s="47"/>
+      <c r="AK56" s="47"/>
+      <c r="AL56" s="47"/>
+      <c r="AM56" s="47"/>
+      <c r="AN56" s="47"/>
+      <c r="AO56" s="47"/>
+      <c r="AP56" s="47"/>
+      <c r="AQ56" s="47"/>
+      <c r="AR56" s="47"/>
+      <c r="AS56" s="47"/>
+      <c r="AT56" s="47"/>
+      <c r="AU56" s="47"/>
+      <c r="AV56" s="47"/>
+      <c r="AW56" s="47"/>
+      <c r="AX56" s="47"/>
+      <c r="AY56" s="47"/>
+      <c r="AZ56" s="47"/>
+      <c r="BA56" s="47"/>
+      <c r="BB56" s="47"/>
+      <c r="BC56" s="47"/>
+      <c r="BD56" s="47"/>
+      <c r="BE56" s="47"/>
+      <c r="BF56" s="47"/>
+      <c r="BG56" s="47"/>
+      <c r="BH56" s="47"/>
+      <c r="BI56" s="47"/>
+      <c r="BJ56" s="47"/>
+      <c r="BK56" s="47"/>
+      <c r="BL56" s="47"/>
+      <c r="BM56" s="47"/>
+      <c r="BN56" s="47"/>
+    </row>
+    <row r="57" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60"/>
+      <c r="Z57" s="60"/>
+      <c r="AA57" s="60"/>
+      <c r="AB57" s="60"/>
+      <c r="AC57" s="60"/>
+      <c r="AD57" s="60"/>
+      <c r="AE57" s="60"/>
+      <c r="AF57" s="60"/>
+      <c r="AG57" s="60"/>
+      <c r="AH57" s="60"/>
+      <c r="AI57" s="60"/>
+      <c r="AJ57" s="60"/>
+      <c r="AK57" s="60"/>
+      <c r="AL57" s="60"/>
+      <c r="AM57" s="60"/>
+      <c r="AN57" s="60"/>
+      <c r="AO57" s="60"/>
+      <c r="AP57" s="60"/>
+      <c r="AQ57" s="60"/>
+      <c r="AR57" s="60"/>
+      <c r="AS57" s="60"/>
+      <c r="AT57" s="60"/>
+      <c r="AU57" s="60"/>
+      <c r="AV57" s="60"/>
+      <c r="AW57" s="60"/>
+      <c r="AX57" s="60"/>
+      <c r="AY57" s="60"/>
+      <c r="AZ57" s="60"/>
+      <c r="BA57" s="60"/>
+      <c r="BB57" s="60"/>
+      <c r="BC57" s="60"/>
+      <c r="BD57" s="60"/>
+      <c r="BE57" s="60"/>
+      <c r="BF57" s="60"/>
+      <c r="BG57" s="60"/>
+      <c r="BH57" s="60"/>
+      <c r="BI57" s="60"/>
+      <c r="BJ57" s="60"/>
+      <c r="BK57" s="60"/>
+      <c r="BL57" s="60"/>
+      <c r="BM57" s="60"/>
+      <c r="BN57" s="60"/>
+    </row>
+    <row r="58" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <mergeCells count="19">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+  <mergeCells count="27">
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CC5:CI5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -9403,10 +10020,18 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H48:H52 H8:H46">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="H52:H56 H8:H50">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9420,32 +10045,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BM7">
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="11" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN52">
-    <cfRule type="expression" dxfId="2" priority="49">
+  <conditionalFormatting sqref="K8:BN56">
+    <cfRule type="expression" dxfId="10" priority="57">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="50">
+    <cfRule type="expression" dxfId="9" priority="58">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN52">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="K6:BN56">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <conditionalFormatting sqref="BO6:BT7">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>BO$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO6:BU7">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>BO$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV6:CA7">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>BV$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV6:CB7">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>BV$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CC6:CH7">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>CC$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CC6:CI7">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>CC$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ6:CO7">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>CJ$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ6:CP7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>CJ$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Start Date." sqref="I4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A45:B46 B40 B41:B43 B34:B37 B48 B47 F19 F33 F39 E45:I48 I20 I13 I12 I11 I10 E51:E52 E49:I49 H40:I43 H34:I37 H19:I19 H33:I33 H39:I39 I22" unlockedFormula="1"/>
-    <ignoredError sqref="A39 A33 A19" formula="1"/>
+    <ignoredError sqref="A49:B50 B44 B45:B47 B52 B51 F19 F33 F43 E49:I52 I20 I13 I12 I11 I10 E55:E56 E53:I53 H44:I47 I37 H19:I19 H33:I33 H43:I43 I22 I34 I35 I36" unlockedFormula="1"/>
+    <ignoredError sqref="A43 A33 A19" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -9459,13 +10124,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -9493,7 +10158,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48:H52 H8:H46</xm:sqref>
+          <xm:sqref>H52:H56 H8:H50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9510,74 +10175,74 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="90.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="13"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="13"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="14">
+    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="18">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="156" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="25"/>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="60">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B5" s="157" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B7" s="157" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="155" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
+    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B11" s="158" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1"/>
-    <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="250" t="s">
+    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="250"/>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
+      <c r="B13" s="253"/>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="18">
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="159"/>
       <c r="B15" s="160" t="s">
         <v>80</v>
@@ -9585,7 +10250,7 @@
       <c r="C15" s="161"/>
       <c r="D15" s="161"/>
     </row>
-    <row r="16" spans="1:4" ht="18">
+    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="159"/>
       <c r="B16" s="162" t="s">
         <v>81</v>
@@ -9593,19 +10258,19 @@
       <c r="C16" s="161"/>
       <c r="D16" s="161"/>
     </row>
-    <row r="17" spans="1:4" ht="18">
+    <row r="17" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="163"/>
       <c r="B17" s="162" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18">
+    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="163"/>
       <c r="B18" s="162" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="30">
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="164"/>
       <c r="B19" s="162" t="s">
         <v>133</v>
@@ -9613,31 +10278,31 @@
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
     </row>
-    <row r="20" spans="1:4" ht="18">
+    <row r="20" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="163"/>
       <c r="B20" s="162" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="18">
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="165"/>
       <c r="B21" s="166" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="18">
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="165"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="18">
-      <c r="A23" s="250" t="s">
+    <row r="23" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="253" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="250"/>
+      <c r="B23" s="253"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24" s="165"/>
       <c r="B24" s="162" t="s">
         <v>87</v>
@@ -9645,13 +10310,13 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="18">
+    <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="165"/>
       <c r="B25" s="162"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="18">
+    <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="165"/>
       <c r="B26" s="167" t="s">
         <v>88</v>
@@ -9659,7 +10324,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="18">
+    <row r="27" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="165"/>
       <c r="B27" s="162" t="s">
         <v>89</v>
@@ -9667,7 +10332,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="30">
+    <row r="28" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="165"/>
       <c r="B28" s="162" t="s">
         <v>90</v>
@@ -9675,13 +10340,13 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="18">
+    <row r="29" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="165"/>
       <c r="B29" s="162"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="18">
+    <row r="30" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="165"/>
       <c r="B30" s="167" t="s">
         <v>91</v>
@@ -9689,7 +10354,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="18">
+    <row r="31" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="165"/>
       <c r="B31" s="162" t="s">
         <v>92</v>
@@ -9697,7 +10362,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="18">
+    <row r="32" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="165"/>
       <c r="B32" s="162" t="s">
         <v>93</v>
@@ -9705,13 +10370,13 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="18">
+    <row r="33" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="165"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="165"/>
       <c r="B34" s="162" t="s">
         <v>94</v>
@@ -9719,7 +10384,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="18">
+    <row r="35" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="165"/>
       <c r="B35" s="168" t="s">
         <v>95</v>
@@ -9727,29 +10392,29 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="18">
+    <row r="36" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="165"/>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" ht="18">
-      <c r="A37" s="250" t="s">
+    <row r="37" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="250"/>
-    </row>
-    <row r="38" spans="1:4" ht="30">
+      <c r="B37" s="253"/>
+    </row>
+    <row r="38" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B38" s="162" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="162" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="2" customFormat="1" ht="30">
+    <row r="42" spans="1:4" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="162" t="s">
         <v>98</v>
@@ -9757,37 +10422,37 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="44" spans="1:4" ht="30">
+    <row r="44" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B44" s="162" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="30">
+    <row r="46" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B46" s="162" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:4" ht="18">
-      <c r="A48" s="250" t="s">
+    <row r="48" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="253" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="250"/>
-    </row>
-    <row r="49" spans="1:2" ht="30">
+      <c r="B48" s="253"/>
+    </row>
+    <row r="49" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B49" s="162" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:2" ht="15">
+    <row r="51" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="169" t="s">
         <v>10</v>
       </c>
@@ -9795,7 +10460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15">
+    <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="169" t="s">
         <v>12</v>
       </c>
@@ -9803,7 +10468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15">
+    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="169" t="s">
         <v>14</v>
       </c>
@@ -9811,19 +10476,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30">
+    <row r="54" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A54" s="158"/>
       <c r="B54" s="162" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30">
+    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A55" s="158"/>
       <c r="B55" s="162" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15">
+    <row r="56" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="169" t="s">
         <v>16</v>
       </c>
@@ -9831,19 +10496,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15">
+    <row r="57" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="158"/>
       <c r="B57" s="162" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="13" customFormat="1" ht="15">
+    <row r="58" spans="1:2" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="158"/>
       <c r="B58" s="162" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="13" customFormat="1" ht="15">
+    <row r="59" spans="1:2" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="169" t="s">
         <v>18</v>
       </c>
@@ -9851,13 +10516,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="13" customFormat="1" ht="30">
+    <row r="60" spans="1:2" s="13" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A60" s="158"/>
       <c r="B60" s="162" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15">
+    <row r="61" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="169" t="s">
         <v>107</v>
       </c>
@@ -9865,22 +10530,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="13" customFormat="1" ht="15">
+    <row r="62" spans="1:2" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="170"/>
       <c r="B62" s="162" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="13" customFormat="1">
+    <row r="63" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:2" s="13" customFormat="1" ht="18">
-      <c r="A64" s="250" t="s">
+    <row r="64" spans="1:2" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A64" s="253" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="250"/>
-    </row>
-    <row r="65" spans="1:4" s="2" customFormat="1" ht="45">
+      <c r="B64" s="253"/>
+    </row>
+    <row r="65" spans="1:4" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="162" t="s">
         <v>110</v>
@@ -9888,16 +10553,16 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
     </row>
-    <row r="66" spans="1:4" s="13" customFormat="1">
+    <row r="66" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A67" s="250" t="s">
+    <row r="67" spans="1:4" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A67" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="250"/>
-    </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" ht="15">
+      <c r="B67" s="253"/>
+    </row>
+    <row r="68" spans="1:4" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="171" t="s">
         <v>4</v>
       </c>
@@ -9907,7 +10572,7 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
     </row>
-    <row r="69" spans="1:4" ht="30">
+    <row r="69" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="173"/>
       <c r="B69" s="174" t="s">
         <v>112</v>
@@ -9915,11 +10580,11 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" s="2" customFormat="1" ht="14">
+    <row r="70" spans="1:4" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="173"/>
       <c r="B70" s="175"/>
     </row>
-    <row r="71" spans="1:4" s="2" customFormat="1" ht="15">
+    <row r="71" spans="1:4" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="171" t="s">
         <v>4</v>
       </c>
@@ -9929,17 +10594,17 @@
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
     </row>
-    <row r="72" spans="1:4" s="2" customFormat="1" ht="30">
+    <row r="72" spans="1:4" s="2" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A72" s="173"/>
       <c r="B72" s="174" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" ht="14">
+    <row r="73" spans="1:4" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="173"/>
       <c r="B73" s="175"/>
     </row>
-    <row r="74" spans="1:4" ht="14">
+    <row r="74" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="171" t="s">
         <v>4</v>
       </c>
@@ -9947,7 +10612,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30">
+    <row r="75" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A75" s="173"/>
       <c r="B75" s="157" t="s">
         <v>116</v>
@@ -9955,13 +10620,13 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1" ht="14">
+    <row r="76" spans="1:4" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="170"/>
       <c r="B76" s="170"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
     </row>
-    <row r="77" spans="1:4" s="2" customFormat="1" ht="14">
+    <row r="77" spans="1:4" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="171" t="s">
         <v>4</v>
       </c>
@@ -9971,17 +10636,17 @@
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
     </row>
-    <row r="78" spans="1:4" s="2" customFormat="1" ht="30">
+    <row r="78" spans="1:4" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A78" s="173"/>
       <c r="B78" s="157" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14">
+    <row r="79" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="170"/>
       <c r="B79" s="170"/>
     </row>
-    <row r="80" spans="1:4" ht="14">
+    <row r="80" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="171" t="s">
         <v>4</v>
       </c>
@@ -9989,29 +10654,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" ht="15">
+    <row r="81" spans="1:4" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="173"/>
       <c r="B81" s="177" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" ht="15">
+    <row r="82" spans="1:4" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="173"/>
       <c r="B82" s="177" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" ht="15">
+    <row r="83" spans="1:4" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="173"/>
       <c r="B83" s="177" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="14">
+    <row r="84" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A84" s="170"/>
       <c r="B84" s="178"/>
     </row>
-    <row r="85" spans="1:4" ht="14">
+    <row r="85" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="171" t="s">
         <v>4</v>
       </c>
@@ -10019,7 +10684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="45">
+    <row r="86" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A86" s="173"/>
       <c r="B86" s="157" t="s">
         <v>124</v>
@@ -10027,7 +10692,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="173"/>
       <c r="B87" s="179" t="s">
         <v>125</v>
@@ -10035,7 +10700,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" ht="45">
+    <row r="88" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A88" s="173"/>
       <c r="B88" s="180" t="s">
         <v>126</v>
@@ -10043,11 +10708,11 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" ht="14">
+    <row r="89" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="170"/>
       <c r="B89" s="170"/>
     </row>
-    <row r="90" spans="1:4" ht="14">
+    <row r="90" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="171" t="s">
         <v>4</v>
       </c>
@@ -10055,13 +10720,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30">
+    <row r="91" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A91" s="158"/>
       <c r="B91" s="177" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
         <v>53</v>
       </c>
@@ -10099,175 +10764,175 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" style="9" customWidth="1"/>
-    <col min="4" max="7" width="8.83203125" style="9"/>
+    <col min="3" max="3" width="55.109375" style="9" customWidth="1"/>
+    <col min="4" max="7" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" ht="18">
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18">
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="9" customFormat="1"/>
-    <row r="18" spans="2:2" ht="14">
+    <row r="17" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:2" s="9" customFormat="1" ht="14">
+    <row r="22" spans="2:2" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="9" customFormat="1">
+    <row r="23" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="9" customFormat="1">
+    <row r="24" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:2" s="9" customFormat="1" ht="14">
+    <row r="26" spans="2:2" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:2" s="9" customFormat="1">
+    <row r="27" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="9" customFormat="1">
+    <row r="28" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14">
+    <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14">
+    <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:2" s="9" customFormat="1" ht="14">
+    <row r="42" spans="2:2" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:2" s="9" customFormat="1">
+    <row r="43" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:2" s="9" customFormat="1">
+    <row r="44" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="2:2" s="9" customFormat="1"/>
-    <row r="46" spans="2:2" ht="18">
+    <row r="45" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>23</v>
       </c>
@@ -10292,14 +10957,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="82.1640625" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="9"/>
+    <col min="1" max="1" width="5.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="82.109375" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>51</v>
       </c>
@@ -10307,163 +10972,163 @@
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="32"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="30"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="17">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="34">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="16">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="51">
+    <row r="10" spans="1:4" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="16">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="51">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:4" ht="16">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:4" ht="51">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:4" ht="16">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:4" ht="34">
+    <row r="16" spans="1:4" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" ht="16">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" ht="17">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" ht="17">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" ht="16">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="12"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
